--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1567815-22FD-4E0C-8757-B83285DB7E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D360B4-3227-407D-BEAB-8B53A34B46E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah15,Sah09,Rah18,Rc0416h11,Wb0121h13,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah13,Tah08,Wb0121h07,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17</t>
-  </si>
-  <si>
-    <t>Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah02,Rah20,Wah01,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04</t>
+    <t>Rah15,Sah09,Rah18,Rc0416h11,Wb0121h13,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah13,Tah08,Wb0121h07,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16</t>
+  </si>
+  <si>
+    <t>Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah02,Rah20,Wah01,Rah03,Rc0416h02,Wah21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah02,Rah20,Wah01,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04</v>
+        <v>Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah02,Rah20,Wah01,Rah03,Rc0416h02,Wah21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah15,Sah09,Rah18,Rc0416h11,Wb0121h13,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah13,Tah08,Wb0121h07,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17</v>
+        <v>Rah15,Sah09,Rah18,Rc0416h11,Wb0121h13,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah13,Tah08,Wb0121h07,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E122F20-8375-46CF-AE47-39C756E57EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14791BA-99DB-40F5-8C01-33A856522F39}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80FD587-AA93-42FE-B9C0-E4F30529B9FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA55EBA4-B04C-4586-A75C-CA642D43F096}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3618,7 +3618,7 @@
         <v>29</v>
       </c>
       <c r="N5">
-        <v>0.39690767947648675</v>
+        <v>0.39690767947648692</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3650,10 +3650,10 @@
         <v>204</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N6">
-        <v>0.2560595367934817</v>
+        <v>0.27553730672996724</v>
       </c>
       <c r="O6" t="s">
         <v>408</v>
@@ -3685,10 +3685,10 @@
         <v>204</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N7">
-        <v>0.27553730672996718</v>
+        <v>0.25605953679348176</v>
       </c>
       <c r="O7" t="s">
         <v>408</v>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9896D3F-146A-451A-BC4E-33DA340E84D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4FE80-2AC5-41FE-8792-1A2F154EE28D}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D360B4-3227-407D-BEAB-8B53A34B46E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D751C7-8546-4BA9-8E22-22ED1DCC5F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rah15,Sah09,Rah18,Rc0416h11,Wb0121h13,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah13,Tah08,Wb0121h07,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16</t>
-  </si>
-  <si>
-    <t>Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah02,Rah20,Wah01,Rah03,Rc0416h02,Wah21</t>
+    <t>Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah15,Sah09,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13</t>
+  </si>
+  <si>
+    <t>Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Rah02,Rah20,Wah01,Se0716h23,Tg1016h19,Tg1016h21,Wah03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah02,Rah20,Wah01,Rah03,Rc0416h02,Wah21</v>
+        <v>Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Rah02,Rah20,Wah01,Se0716h23,Tg1016h19,Tg1016h21,Wah03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rah15,Sah09,Rah18,Rc0416h11,Wb0121h13,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah13,Tah08,Wb0121h07,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16</v>
+        <v>Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah15,Sah09,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14791BA-99DB-40F5-8C01-33A856522F39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425549C3-40BF-46F9-A554-C70F2FA0DE2E}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA55EBA4-B04C-4586-A75C-CA642D43F096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73573227-1ED4-4C33-A715-6E71AE7B2D43}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3580,10 +3580,10 @@
         <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N4">
-        <v>0.27149547700006416</v>
+        <v>0.27553730672996724</v>
       </c>
       <c r="O4" t="s">
         <v>408</v>
@@ -3615,10 +3615,10 @@
         <v>204</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N5">
-        <v>0.39690767947648692</v>
+        <v>0.2560595367934817</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3650,10 +3650,10 @@
         <v>204</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N6">
-        <v>0.27553730672996724</v>
+        <v>0.39690767947648675</v>
       </c>
       <c r="O6" t="s">
         <v>408</v>
@@ -3685,10 +3685,10 @@
         <v>204</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N7">
-        <v>0.25605953679348176</v>
+        <v>0.27149547700006416</v>
       </c>
       <c r="O7" t="s">
         <v>408</v>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4FE80-2AC5-41FE-8792-1A2F154EE28D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE16358-E4A4-47E6-A3A2-20D950800245}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D751C7-8546-4BA9-8E22-22ED1DCC5F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B98B18-E1E2-4E99-9B9C-6ACC81574B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah15,Sah09,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13</t>
-  </si>
-  <si>
-    <t>Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Rah02,Rah20,Wah01,Se0716h23,Tg1016h19,Tg1016h21,Wah03</t>
+    <t>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah15,Sah09,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah13,Tah08,Wb0121h07,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah18,Rc0416h11,Wb0121h13,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13</t>
+  </si>
+  <si>
+    <t>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah02,Rah20,Wah01,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah03,Rc0416h02,Wah21,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Se0716h23,Tg1016h19,Tg1016h21,Wah03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Rah02,Rah20,Wah01,Se0716h23,Tg1016h19,Tg1016h21,Wah03</v>
+        <v>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah02,Rah20,Wah01,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah03,Rc0416h02,Wah21,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Se0716h23,Tg1016h19,Tg1016h21,Wah03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah15,Sah09,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13</v>
+        <v>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah15,Sah09,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah13,Tah08,Wb0121h07,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah18,Rc0416h11,Wb0121h13,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425549C3-40BF-46F9-A554-C70F2FA0DE2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAB8DC7-DB7F-477F-873C-07583BA9D584}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73573227-1ED4-4C33-A715-6E71AE7B2D43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B53688-3BCE-4453-85AC-B3FE1A841FF7}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3618,7 +3618,7 @@
         <v>22</v>
       </c>
       <c r="N5">
-        <v>0.2560595367934817</v>
+        <v>0.25605953679348176</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3653,7 +3653,7 @@
         <v>29</v>
       </c>
       <c r="N6">
-        <v>0.39690767947648675</v>
+        <v>0.39690767947648681</v>
       </c>
       <c r="O6" t="s">
         <v>408</v>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE16358-E4A4-47E6-A3A2-20D950800245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BCDF2-ACD4-442F-B5E7-30FD0C733C16}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE16598-C3EA-4AFE-AC4C-0242F4CD61EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D3D4CF-28F0-491A-88EF-94D8D6F97C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="410">
   <si>
     <t>UC_N</t>
   </si>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah15,Sah09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah18,Rc0416h11,Wb0121h13,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h12,Se0716h10,Tg1016h07,Wah11</t>
-  </si>
-  <si>
-    <t>Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04</t>
+    <t>Rah13,Tah08,Wb0121h07,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah15,Sah09,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah18,Rc0416h11,Wb0121h13,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12</t>
+  </si>
+  <si>
+    <t>Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah02,Rah20,Wah01,Rah03,Rc0416h02,Wah21,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04</v>
+        <v>Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah02,Rah20,Wah01,Rah03,Rc0416h02,Wah21,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah15,Sah09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah18,Rc0416h11,Wb0121h13,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h12,Se0716h10,Tg1016h07,Wah11</v>
+        <v>Rah13,Tah08,Wb0121h07,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah15,Sah09,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah18,Rc0416h11,Wb0121h13,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C9334E-04AC-465B-96ED-8519A59CA94A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492F0AC7-2EE3-4945-83D5-BAD2C76A97D2}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555A58E7-CA2E-43A5-888D-9ADCD3CA4BAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD90B458-7C5C-4FB9-B639-8CE75700072A}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3580,10 +3580,10 @@
         <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N4">
-        <v>0.27553730672996729</v>
+        <v>0.2560595367934817</v>
       </c>
       <c r="O4" t="s">
         <v>408</v>
@@ -3615,10 +3615,10 @@
         <v>204</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N5">
-        <v>0.39690767947648681</v>
+        <v>0.27553730672996718</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3685,10 +3685,10 @@
         <v>204</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N7">
-        <v>0.25605953679348176</v>
+        <v>0.39690767947648675</v>
       </c>
       <c r="O7" t="s">
         <v>408</v>
@@ -8588,8 +8588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B91733-C9FF-4CD0-994F-68EBDF24B79A}">
-  <dimension ref="B2:O371"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEECFE24-E909-4B1F-911C-09C562338D71}">
+  <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8658,7 +8658,7 @@
         <v>202</v>
       </c>
       <c r="J4">
-        <v>8.4173765962447071E-3</v>
+        <v>8.2286306570262362E-3</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -8667,7 +8667,7 @@
         <v>202</v>
       </c>
       <c r="O4">
-        <v>0.11518150089541312</v>
+        <v>0.11078758818252732</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
@@ -8690,7 +8690,7 @@
         <v>205</v>
       </c>
       <c r="J5">
-        <v>8.4256080408344775E-3</v>
+        <v>8.1362726779914511E-3</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -8699,7 +8699,7 @@
         <v>205</v>
       </c>
       <c r="O5">
-        <v>0.11225144637512185</v>
+        <v>0.11518150089541312</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
@@ -8722,7 +8722,7 @@
         <v>206</v>
       </c>
       <c r="J6">
-        <v>8.6257711168070336E-3</v>
+        <v>8.1442292279866168E-3</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -8731,7 +8731,7 @@
         <v>206</v>
       </c>
       <c r="O6">
-        <v>9.5503856020458189E-2</v>
+        <v>0.11225144637512185</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
@@ -8754,7 +8754,7 @@
         <v>207</v>
       </c>
       <c r="J7">
-        <v>9.3906968131400887E-3</v>
+        <v>8.3377077242326788E-3</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -8763,7 +8763,7 @@
         <v>207</v>
       </c>
       <c r="O7">
-        <v>8.0875151323433592E-2</v>
+        <v>9.5503856020458189E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
@@ -8786,7 +8786,7 @@
         <v>208</v>
       </c>
       <c r="J8">
-        <v>1.0498093365158723E-2</v>
+        <v>9.0770882156015475E-3</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -8795,7 +8795,7 @@
         <v>208</v>
       </c>
       <c r="O8">
-        <v>0.14448061331374662</v>
+        <v>8.0875151323433592E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
@@ -8818,7 +8818,7 @@
         <v>209</v>
       </c>
       <c r="J9">
-        <v>1.1368445693367518E-2</v>
+        <v>1.0147502519496525E-2</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -8827,7 +8827,7 @@
         <v>209</v>
       </c>
       <c r="O9">
-        <v>0.14618251148279748</v>
+        <v>0.14448061331374662</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -8850,7 +8850,7 @@
         <v>210</v>
       </c>
       <c r="J10">
-        <v>1.1889998574725613E-2</v>
+        <v>1.0988788849894376E-2</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -8859,7 +8859,7 @@
         <v>210</v>
       </c>
       <c r="O10">
-        <v>0.12276916282835471</v>
+        <v>0.14618251148279748</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -8882,7 +8882,7 @@
         <v>211</v>
       </c>
       <c r="J11">
-        <v>1.2062794769984127E-2</v>
+        <v>1.1492924124133474E-2</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -8891,7 +8891,7 @@
         <v>211</v>
       </c>
       <c r="O11">
-        <v>0.11745266200730731</v>
+        <v>0.12276916282835471</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -8914,7 +8914,7 @@
         <v>212</v>
       </c>
       <c r="J12">
-        <v>1.2070470324809391E-2</v>
+        <v>1.1659949674941068E-2</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -8923,7 +8923,7 @@
         <v>212</v>
       </c>
       <c r="O12">
-        <v>0.12170603037541339</v>
+        <v>0.11745266200730731</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
@@ -8946,7 +8946,7 @@
         <v>213</v>
       </c>
       <c r="J13">
-        <v>1.2000535116359677E-2</v>
+        <v>1.1667368899482011E-2</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -8955,7 +8955,7 @@
         <v>213</v>
       </c>
       <c r="O13">
-        <v>0.1267626048776358</v>
+        <v>0.12170603037541339</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
@@ -8978,7 +8978,7 @@
         <v>214</v>
       </c>
       <c r="J14">
-        <v>1.1920465609895544E-2</v>
+        <v>1.1599769224068546E-2</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -8987,7 +8987,7 @@
         <v>214</v>
       </c>
       <c r="O14">
-        <v>0.13184954901308754</v>
+        <v>0.1267626048776358</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
@@ -9010,7 +9010,7 @@
         <v>215</v>
       </c>
       <c r="J15">
-        <v>1.1870542432967974E-2</v>
+        <v>1.1522373692297397E-2</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -9019,7 +9019,7 @@
         <v>215</v>
       </c>
       <c r="O15">
-        <v>0.13432507798774163</v>
+        <v>0.13184954901308754</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
@@ -9042,7 +9042,7 @@
         <v>216</v>
       </c>
       <c r="J16">
-        <v>1.1809651123379228E-2</v>
+        <v>1.1474117733235813E-2</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -9051,7 +9051,7 @@
         <v>216</v>
       </c>
       <c r="O16">
-        <v>0.13946158607239667</v>
+        <v>0.13432507798774163</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
@@ -9074,7 +9074,7 @@
         <v>217</v>
       </c>
       <c r="J17">
-        <v>1.177537838136E-2</v>
+        <v>1.1415259929635217E-2</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -9083,7 +9083,7 @@
         <v>217</v>
       </c>
       <c r="O17">
-        <v>0.14089001232660836</v>
+        <v>0.13946158607239667</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
@@ -9106,7 +9106,7 @@
         <v>218</v>
       </c>
       <c r="J18">
-        <v>1.1812473332952864E-2</v>
+        <v>1.1382131748746256E-2</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -9115,7 +9115,7 @@
         <v>218</v>
       </c>
       <c r="O18">
-        <v>0.14339850778992824</v>
+        <v>0.14089001232660836</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
@@ -9138,7 +9138,7 @@
         <v>219</v>
       </c>
       <c r="J19">
-        <v>1.185001727243244E-2</v>
+        <v>1.1417987889633559E-2</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -9147,7 +9147,7 @@
         <v>219</v>
       </c>
       <c r="O19">
-        <v>0.1426842480639019</v>
+        <v>0.14339850778992824</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
@@ -9170,7 +9170,7 @@
         <v>220</v>
       </c>
       <c r="J20">
-        <v>1.187118384423471E-2</v>
+        <v>1.1454278024156959E-2</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -9179,7 +9179,7 @@
         <v>220</v>
       </c>
       <c r="O20">
-        <v>0.14063362501922971</v>
+        <v>0.1426842480639019</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
@@ -9202,7 +9202,7 @@
         <v>221</v>
       </c>
       <c r="J21">
-        <v>1.174728456787699E-2</v>
+        <v>1.1474737724144528E-2</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -9211,7 +9211,7 @@
         <v>221</v>
       </c>
       <c r="O21">
-        <v>0.14367232212401371</v>
+        <v>0.14063362501922971</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
@@ -9234,7 +9234,7 @@
         <v>222</v>
       </c>
       <c r="J22">
-        <v>1.1435045563230209E-2</v>
+        <v>1.1354976146944576E-2</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -9243,7 +9243,7 @@
         <v>222</v>
       </c>
       <c r="O22">
-        <v>0.12899687977162588</v>
+        <v>0.14367232212401371</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
@@ -9266,7 +9266,7 @@
         <v>223</v>
       </c>
       <c r="J23">
-        <v>1.0558236361602944E-2</v>
+        <v>1.1053164572582529E-2</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
@@ -9275,7 +9275,7 @@
         <v>223</v>
       </c>
       <c r="O23">
-        <v>9.2807594012413341E-2</v>
+        <v>0.12899687977162588</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
@@ -9298,7 +9298,7 @@
         <v>224</v>
       </c>
       <c r="J24">
-        <v>9.8499472801226208E-3</v>
+        <v>1.0205637000370289E-2</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -9307,7 +9307,7 @@
         <v>224</v>
       </c>
       <c r="O24">
-        <v>8.1795314368523719E-2</v>
+        <v>9.2807594012413341E-2</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
@@ -9330,7 +9330,7 @@
         <v>225</v>
       </c>
       <c r="J25">
-        <v>9.163444801335744E-3</v>
+        <v>9.5210017062408777E-3</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -9339,7 +9339,7 @@
         <v>225</v>
       </c>
       <c r="O25">
-        <v>7.9503418595987307E-2</v>
+        <v>8.1795314368523719E-2</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
@@ -9362,7 +9362,7 @@
         <v>226</v>
       </c>
       <c r="J26">
-        <v>8.8338663121115477E-3</v>
+        <v>8.8574254366441257E-3</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -9371,7 +9371,7 @@
         <v>226</v>
       </c>
       <c r="O26">
-        <v>9.202075098814233E-2</v>
+        <v>7.9503418595987307E-2</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
@@ -9391,19 +9391,19 @@
         <v>403</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J27">
-        <v>8.6201811743513888E-5</v>
+        <v>8.5388534413831721E-3</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>9.202075098814233E-2</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
@@ -9423,16 +9423,16 @@
         <v>403</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J28">
-        <v>8.639423512353452E-5</v>
+        <v>8.417036552499691E-5</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -9455,16 +9455,16 @@
         <v>403</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J29">
-        <v>9.1226199999607733E-5</v>
+        <v>8.3323044616420884E-5</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>403</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J30">
-        <v>1.0523034598999686E-4</v>
+        <v>8.3509041889035144E-5</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
       </c>
       <c r="N30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -9519,16 +9519,16 @@
         <v>403</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J31">
-        <v>1.2160771366730688E-4</v>
+        <v>8.817964006801508E-5</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
       </c>
       <c r="N31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -9551,16 +9551,16 @@
         <v>403</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J32">
-        <v>1.2973225637928837E-4</v>
+        <v>1.017161082416073E-4</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -9583,16 +9583,16 @@
         <v>403</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J33">
-        <v>1.3118612191722188E-4</v>
+        <v>1.1754654277744188E-4</v>
       </c>
       <c r="M33" t="s">
         <v>14</v>
       </c>
       <c r="N33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -9615,16 +9615,16 @@
         <v>403</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J34">
-        <v>1.3067299290383361E-4</v>
+        <v>1.2539976095448776E-4</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>403</v>
       </c>
       <c r="I35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J35">
-        <v>1.2958259375038346E-4</v>
+        <v>1.268050736809065E-4</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
       </c>
       <c r="N35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -9679,16 +9679,16 @@
         <v>403</v>
       </c>
       <c r="I36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J36">
-        <v>1.2939017037036284E-4</v>
+        <v>1.2630908095393519E-4</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
       </c>
       <c r="N36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -9711,16 +9711,16 @@
         <v>403</v>
       </c>
       <c r="I37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J37">
-        <v>1.2915498623922652E-4</v>
+        <v>1.2525509640912112E-4</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -9743,16 +9743,16 @@
         <v>403</v>
       </c>
       <c r="I38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J38">
-        <v>1.2915498623922655E-4</v>
+        <v>1.250690991365069E-4</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -9775,16 +9775,16 @@
         <v>403</v>
       </c>
       <c r="I39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J39">
-        <v>1.281714889635656E-4</v>
+        <v>1.2484176913664505E-4</v>
       </c>
       <c r="M39" t="s">
         <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -9807,16 +9807,16 @@
         <v>403</v>
       </c>
       <c r="I40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J40">
-        <v>1.2708108981011548E-4</v>
+        <v>1.2484176913664505E-4</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
       </c>
       <c r="N40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>403</v>
       </c>
       <c r="I41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J41">
-        <v>1.2665348229895854E-4</v>
+        <v>1.2389111640995001E-4</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -9871,16 +9871,16 @@
         <v>403</v>
       </c>
       <c r="I42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J42">
-        <v>1.2629001591447518E-4</v>
+        <v>1.2283713186513596E-4</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
       </c>
       <c r="N42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -9903,16 +9903,16 @@
         <v>403</v>
       </c>
       <c r="I43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J43">
-        <v>1.2554170276995053E-4</v>
+        <v>1.2242380459265986E-4</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -9935,16 +9935,16 @@
         <v>403</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J44">
-        <v>1.2325400258526102E-4</v>
+        <v>1.220724764110552E-4</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -9967,16 +9967,16 @@
         <v>403</v>
       </c>
       <c r="I45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J45">
-        <v>1.2053869488941458E-4</v>
+        <v>1.2134915368422198E-4</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -9999,16 +9999,16 @@
         <v>403</v>
       </c>
       <c r="I46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J46">
-        <v>1.1457357010877555E-4</v>
+        <v>1.1913785277647486E-4</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
       </c>
       <c r="N46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -10031,16 +10031,16 @@
         <v>403</v>
       </c>
       <c r="I47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J47">
-        <v>1.0912157434152482E-4</v>
+        <v>1.1651322459625163E-4</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
       </c>
       <c r="N47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -10063,16 +10063,16 @@
         <v>403</v>
       </c>
       <c r="I48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J48">
-        <v>9.798239867588706E-5</v>
+        <v>1.1074730914521006E-4</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
       </c>
       <c r="N48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -10095,16 +10095,16 @@
         <v>403</v>
       </c>
       <c r="I49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J49">
-        <v>9.2231077650826488E-5</v>
+        <v>1.054773864211398E-4</v>
       </c>
       <c r="M49" t="s">
         <v>14</v>
       </c>
       <c r="N49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -10127,19 +10127,19 @@
         <v>403</v>
       </c>
       <c r="I50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J50">
-        <v>7.075348610536266E-3</v>
+        <v>9.4710210973137431E-5</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
       </c>
       <c r="N50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O50">
-        <v>9.894606571120601E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.45">
@@ -10159,19 +10159,19 @@
         <v>403</v>
       </c>
       <c r="I51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J51">
-        <v>7.0482810550800334E-3</v>
+        <v>8.9150959158333906E-5</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
       </c>
       <c r="N51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O51">
-        <v>9.2704415327421019E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.45">
@@ -10191,19 +10191,19 @@
         <v>403</v>
       </c>
       <c r="I52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J52">
-        <v>7.2408540977295516E-3</v>
+        <v>6.9962716420667115E-3</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
       </c>
       <c r="N52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O52">
-        <v>8.6654176039111075E-2</v>
+        <v>9.0986870955905408E-2</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.45">
@@ -10223,19 +10223,19 @@
         <v>403</v>
       </c>
       <c r="I53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J53">
-        <v>7.7311061092709609E-3</v>
+        <v>6.8390626139804281E-3</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
       </c>
       <c r="N53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O53">
-        <v>9.1532602548521691E-2</v>
+        <v>9.894606571120601E-2</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.45">
@@ -10255,19 +10255,19 @@
         <v>403</v>
       </c>
       <c r="I54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J54">
-        <v>8.507491686903023E-3</v>
+        <v>6.8128989976326904E-3</v>
       </c>
       <c r="M54" t="s">
         <v>14</v>
       </c>
       <c r="N54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O54">
-        <v>8.187851704197957E-2</v>
+        <v>9.2704415327421019E-2</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.45">
@@ -10287,19 +10287,19 @@
         <v>403</v>
       </c>
       <c r="I55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J55">
-        <v>9.4793152775093543E-3</v>
+        <v>6.9990409347923015E-3</v>
       </c>
       <c r="M55" t="s">
         <v>14</v>
       </c>
       <c r="N55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O55">
-        <v>8.2647592522260283E-2</v>
+        <v>8.6654176039111075E-2</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.45">
@@ -10319,19 +10319,19 @@
         <v>403</v>
       </c>
       <c r="I56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J56">
-        <v>1.0185295278429431E-2</v>
+        <v>7.4729206526861491E-3</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
       </c>
       <c r="N56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O56">
-        <v>8.4366062917063944E-2</v>
+        <v>9.1532602548521691E-2</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.45">
@@ -10351,19 +10351,19 @@
         <v>403</v>
       </c>
       <c r="I57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J57">
-        <v>1.058790913055923E-2</v>
+        <v>8.2233783149573778E-3</v>
       </c>
       <c r="M57" t="s">
         <v>14</v>
       </c>
       <c r="N57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O57">
-        <v>7.426677495607148E-2</v>
+        <v>8.187851704197957E-2</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.45">
@@ -10383,19 +10383,19 @@
         <v>403</v>
       </c>
       <c r="I58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J58">
-        <v>1.0688268613427757E-2</v>
+        <v>9.1627472071138076E-3</v>
       </c>
       <c r="M58" t="s">
         <v>14</v>
       </c>
       <c r="N58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O58">
-        <v>8.1418102077462917E-2</v>
+        <v>8.2647592522260283E-2</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.45">
@@ -10415,19 +10415,19 @@
         <v>403</v>
       </c>
       <c r="I59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J59">
-        <v>1.0710504204007917E-2</v>
+        <v>9.8451505339718481E-3</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O59">
-        <v>9.1342266894651303E-2</v>
+        <v>8.4366062917063944E-2</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
@@ -10447,19 +10447,19 @@
         <v>403</v>
       </c>
       <c r="I60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J60">
-        <v>1.0708002700067649E-2</v>
+        <v>1.0234318827371719E-2</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O60">
-        <v>9.2402882726939861E-2</v>
+        <v>7.426677495607148E-2</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.45">
@@ -10479,19 +10479,19 @@
         <v>403</v>
       </c>
       <c r="I61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J61">
-        <v>1.0743643786122579E-2</v>
+        <v>1.0331326738221859E-2</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
       </c>
       <c r="N61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O61">
-        <v>0.10058659020744454</v>
+        <v>8.1418102077462917E-2</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.45">
@@ -10511,19 +10511,19 @@
         <v>403</v>
       </c>
       <c r="I62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J62">
-        <v>1.0689230730327862E-2</v>
+        <v>1.0352819756390616E-2</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
       </c>
       <c r="N62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O62">
-        <v>0.11319583505761655</v>
+        <v>9.1342266894651303E-2</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.45">
@@ -10543,19 +10543,19 @@
         <v>403</v>
       </c>
       <c r="I63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J63">
-        <v>1.0605804504901147E-2</v>
+        <v>1.035040179184663E-2</v>
       </c>
       <c r="M63" t="s">
         <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O63">
-        <v>0.11023954068952424</v>
+        <v>9.2402882726939861E-2</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.45">
@@ -10575,19 +10575,19 @@
         <v>403</v>
       </c>
       <c r="I64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J64">
-        <v>1.0541086108087546E-2</v>
+        <v>1.0384852620007514E-2</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O64">
-        <v>0.1051267777844771</v>
+        <v>0.10058659020744454</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.45">
@@ -10607,19 +10607,19 @@
         <v>403</v>
       </c>
       <c r="I65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J65">
-        <v>1.0477180165545144E-2</v>
+        <v>1.033225672458493E-2</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O65">
-        <v>0.10516511120998939</v>
+        <v>0.11319583505761655</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.45">
@@ -10639,19 +10639,19 @@
         <v>403</v>
       </c>
       <c r="I66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J66">
-        <v>1.0376393075165458E-2</v>
+        <v>1.0251616573724842E-2</v>
       </c>
       <c r="M66" t="s">
         <v>14</v>
       </c>
       <c r="N66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O66">
-        <v>9.5007044908813176E-2</v>
+        <v>0.11023954068952424</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.45">
@@ -10671,19 +10671,19 @@
         <v>403</v>
       </c>
       <c r="I67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J67">
-        <v>1.00861544769677E-2</v>
+        <v>1.0189059491035584E-2</v>
       </c>
       <c r="M67" t="s">
         <v>14</v>
       </c>
       <c r="N67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O67">
-        <v>8.6372432970708068E-2</v>
+        <v>0.1051267777844771</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.45">
@@ -10703,19 +10703,19 @@
         <v>403</v>
       </c>
       <c r="I68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J68">
-        <v>9.8653165778307076E-3</v>
+        <v>1.0127287730164032E-2</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O68">
-        <v>8.5612629663864404E-2</v>
+        <v>0.10516511120998939</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.45">
@@ -10735,19 +10735,19 @@
         <v>403</v>
       </c>
       <c r="I69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J69">
-        <v>9.3874438037372908E-3</v>
+        <v>1.0029866492041415E-2</v>
       </c>
       <c r="M69" t="s">
         <v>14</v>
       </c>
       <c r="N69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O69">
-        <v>5.5470185173667641E-2</v>
+        <v>9.5007044908813176E-2</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.45">
@@ -10767,19 +10767,19 @@
         <v>403</v>
       </c>
       <c r="I70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J70">
-        <v>9.0510663550856987E-3</v>
+        <v>9.7493206058482645E-3</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O70">
-        <v>6.04877184585213E-2</v>
+        <v>8.6372432970708068E-2</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.45">
@@ -10799,19 +10799,19 @@
         <v>403</v>
       </c>
       <c r="I71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J71">
-        <v>8.6384037264437136E-3</v>
+        <v>9.5358577359779817E-3</v>
       </c>
       <c r="M71" t="s">
         <v>14</v>
       </c>
       <c r="N71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O71">
-        <v>8.3512099778110693E-2</v>
+        <v>8.5612629663864404E-2</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.45">
@@ -10831,19 +10831,19 @@
         <v>403</v>
       </c>
       <c r="I72" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J72">
-        <v>7.8508148320193399E-3</v>
+        <v>9.0739438426223184E-3</v>
       </c>
       <c r="M72" t="s">
         <v>14</v>
       </c>
       <c r="N72" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O72">
-        <v>9.909968196026897E-2</v>
+        <v>5.5470185173667641E-2</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.45">
@@ -10863,19 +10863,19 @@
         <v>403</v>
       </c>
       <c r="I73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J73">
-        <v>7.8728082668475143E-5</v>
+        <v>8.7487999437289941E-3</v>
       </c>
       <c r="M73" t="s">
         <v>14</v>
       </c>
       <c r="N73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>6.04877184585213E-2</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.45">
@@ -10895,19 +10895,19 @@
         <v>403</v>
       </c>
       <c r="I74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J74">
-        <v>7.8984647175169305E-5</v>
+        <v>8.3499184594259361E-3</v>
       </c>
       <c r="M74" t="s">
         <v>14</v>
       </c>
       <c r="N74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>8.3512099778110693E-2</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.45">
@@ -10927,19 +10927,19 @@
         <v>403</v>
       </c>
       <c r="I75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J75">
-        <v>8.2426887639982499E-5</v>
+        <v>7.5886316226158324E-3</v>
       </c>
       <c r="M75" t="s">
         <v>14</v>
       </c>
       <c r="N75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>9.909968196026897E-2</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.45">
@@ -10959,16 +10959,16 @@
         <v>403</v>
       </c>
       <c r="I76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J76">
-        <v>9.0166583591922756E-5</v>
+        <v>7.6801562083067548E-5</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
       </c>
       <c r="N76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -10991,16 +10991,16 @@
         <v>403</v>
       </c>
       <c r="I77" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J77">
-        <v>1.0119885737977129E-4</v>
+        <v>7.6098905719858165E-5</v>
       </c>
       <c r="M77" t="s">
         <v>14</v>
       </c>
       <c r="N77" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -11023,16 +11023,16 @@
         <v>403</v>
       </c>
       <c r="I78" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J78">
-        <v>1.1368499670555335E-4</v>
+        <v>7.6346902083343845E-5</v>
       </c>
       <c r="M78" t="s">
         <v>14</v>
       </c>
       <c r="N78" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -11055,16 +11055,16 @@
         <v>403</v>
       </c>
       <c r="I79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J79">
-        <v>1.2326340495546836E-4</v>
+        <v>7.9674186626776421E-5</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -11087,16 +11087,16 @@
         <v>403</v>
       </c>
       <c r="I80" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J80">
-        <v>1.2544420326236869E-4</v>
+        <v>8.7155410258593822E-5</v>
       </c>
       <c r="M80" t="s">
         <v>14</v>
       </c>
       <c r="N80" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -11119,16 +11119,16 @@
         <v>403</v>
       </c>
       <c r="I81" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J81">
-        <v>1.2608561452910405E-4</v>
+        <v>9.781925388847717E-5</v>
       </c>
       <c r="M81" t="s">
         <v>14</v>
       </c>
       <c r="N81" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>403</v>
       </c>
       <c r="I82" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J82">
-        <v>1.2666288466916587E-4</v>
+        <v>1.0988841024477924E-4</v>
       </c>
       <c r="M82" t="s">
         <v>14</v>
       </c>
       <c r="N82" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -11183,16 +11183,16 @@
         <v>403</v>
       </c>
       <c r="I83" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J83">
-        <v>1.2813813058265729E-4</v>
+        <v>1.1914694114824388E-4</v>
       </c>
       <c r="M83" t="s">
         <v>14</v>
       </c>
       <c r="N83" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -11215,16 +11215,16 @@
         <v>403</v>
       </c>
       <c r="I84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J84">
-        <v>1.2858711846937206E-4</v>
+        <v>1.2125491023787198E-4</v>
       </c>
       <c r="M84" t="s">
         <v>14</v>
       </c>
       <c r="N84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -11247,16 +11247,16 @@
         <v>403</v>
       </c>
       <c r="I85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J85">
-        <v>1.2875816147383482E-4</v>
+        <v>1.2187490114658614E-4</v>
       </c>
       <c r="M85" t="s">
         <v>14</v>
       </c>
       <c r="N85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -11279,16 +11279,16 @@
         <v>403</v>
       </c>
       <c r="I86" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J86">
-        <v>1.2788156607596314E-4</v>
+        <v>1.2243289296442886E-4</v>
       </c>
       <c r="M86" t="s">
         <v>14</v>
       </c>
       <c r="N86" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>403</v>
       </c>
       <c r="I87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J87">
-        <v>1.2747533894036405E-4</v>
+        <v>1.2385887205447141E-4</v>
       </c>
       <c r="M87" t="s">
         <v>14</v>
       </c>
       <c r="N87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -11343,16 +11343,16 @@
         <v>403</v>
       </c>
       <c r="I88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J88">
-        <v>1.2657736316693449E-4</v>
+        <v>1.2429286569057131E-4</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
       </c>
       <c r="N88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>403</v>
       </c>
       <c r="I89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J89">
-        <v>1.2407585922666656E-4</v>
+        <v>1.2445819659956175E-4</v>
       </c>
       <c r="M89" t="s">
         <v>14</v>
       </c>
       <c r="N89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -11407,16 +11407,16 @@
         <v>403</v>
       </c>
       <c r="I90" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J90">
-        <v>1.2029153275292778E-4</v>
+        <v>1.2361087569098575E-4</v>
       </c>
       <c r="M90" t="s">
         <v>14</v>
       </c>
       <c r="N90" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -11439,16 +11439,16 @@
         <v>403</v>
       </c>
       <c r="I91" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J91">
-        <v>1.151388622434869E-4</v>
+        <v>1.2321821478213343E-4</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
       </c>
       <c r="N91" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -11471,16 +11471,16 @@
         <v>403</v>
       </c>
       <c r="I92" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J92">
-        <v>1.0893855333171155E-4</v>
+        <v>1.2235022750993363E-4</v>
       </c>
       <c r="M92" t="s">
         <v>14</v>
       </c>
       <c r="N92" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -11503,16 +11503,16 @@
         <v>403</v>
       </c>
       <c r="I93" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J93">
-        <v>1.0549631286689836E-4</v>
+        <v>1.1993226296594846E-4</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
       </c>
       <c r="N93" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -11535,16 +11535,16 @@
         <v>403</v>
       </c>
       <c r="I94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J94">
-        <v>1.0224649578210575E-4</v>
+        <v>1.1627431660453498E-4</v>
       </c>
       <c r="M94" t="s">
         <v>14</v>
       </c>
       <c r="N94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -11567,16 +11567,16 @@
         <v>403</v>
       </c>
       <c r="I95" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J95">
-        <v>9.0679712605311067E-5</v>
+        <v>1.1129372297119798E-4</v>
       </c>
       <c r="M95" t="s">
         <v>14</v>
       </c>
       <c r="N95" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -11599,19 +11599,19 @@
         <v>403</v>
       </c>
       <c r="I96" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J96">
-        <v>7.7955447914002688E-3</v>
+        <v>1.0530047752029456E-4</v>
       </c>
       <c r="M96" t="s">
         <v>14</v>
       </c>
       <c r="N96" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O96">
-        <v>0.13793103448275867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.45">
@@ -11631,19 +11631,19 @@
         <v>403</v>
       </c>
       <c r="I97" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J97">
-        <v>7.7861588065303742E-3</v>
+        <v>1.0197319297686196E-4</v>
       </c>
       <c r="M97" t="s">
         <v>14</v>
       </c>
       <c r="N97" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O97">
-        <v>0.13677652435506893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.45">
@@ -11663,19 +11663,19 @@
         <v>403</v>
       </c>
       <c r="I98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J98">
-        <v>7.9350731222907721E-3</v>
+        <v>9.8831905706043614E-5</v>
       </c>
       <c r="M98" t="s">
         <v>14</v>
       </c>
       <c r="N98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O98">
-        <v>0.12299765521043549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.45">
@@ -11695,19 +11695,19 @@
         <v>403</v>
       </c>
       <c r="I99" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J99">
-        <v>8.4756545378953507E-3</v>
+        <v>8.7651402985565143E-5</v>
       </c>
       <c r="M99" t="s">
         <v>14</v>
       </c>
       <c r="N99" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O99">
-        <v>0.11793399350702316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.45">
@@ -11727,19 +11727,19 @@
         <v>403</v>
       </c>
       <c r="I100" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J100">
-        <v>9.4289627232685882E-3</v>
+        <v>7.6849971654953169E-3</v>
       </c>
       <c r="M100" t="s">
         <v>14</v>
       </c>
       <c r="N100" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O100">
-        <v>0.17311324628397795</v>
+        <v>0.12865562670799857</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.45">
@@ -11759,19 +11759,19 @@
         <v>403</v>
       </c>
       <c r="I101" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J101">
-        <v>1.0414127668223016E-2</v>
+        <v>7.535207361949979E-3</v>
       </c>
       <c r="M101" t="s">
         <v>14</v>
       </c>
       <c r="N101" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O101">
-        <v>0.18493084492550116</v>
+        <v>0.13793103448275867</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.45">
@@ -11791,19 +11791,19 @@
         <v>403</v>
       </c>
       <c r="I102" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J102">
-        <v>1.1125388621905879E-2</v>
+        <v>7.5261348283191289E-3</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
       </c>
       <c r="N102" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O102">
-        <v>0.16245964529931345</v>
+        <v>0.13677652435506893</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.45">
@@ -11823,19 +11823,19 @@
         <v>403</v>
       </c>
       <c r="I103" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J103">
-        <v>1.1428455445438346E-2</v>
+        <v>7.6700760509589303E-3</v>
       </c>
       <c r="M103" t="s">
         <v>14</v>
       </c>
       <c r="N103" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O103">
-        <v>0.154420712629048</v>
+        <v>0.12299765521043549</v>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.45">
@@ -11855,19 +11855,19 @@
         <v>403</v>
       </c>
       <c r="I104" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J104">
-        <v>1.1463326837973194E-2</v>
+        <v>8.1926043888232141E-3</v>
       </c>
       <c r="M104" t="s">
         <v>14</v>
       </c>
       <c r="N104" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O104">
-        <v>0.15419106188447329</v>
+        <v>0.11793399350702316</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.45">
@@ -11887,19 +11887,19 @@
         <v>403</v>
       </c>
       <c r="I105" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J105">
-        <v>1.1407759241898352E-2</v>
+        <v>9.1140762100814302E-3</v>
       </c>
       <c r="M105" t="s">
         <v>14</v>
       </c>
       <c r="N105" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O105">
-        <v>0.15843009691911858</v>
+        <v>0.17311324628397795</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.45">
@@ -11919,19 +11919,19 @@
         <v>403</v>
       </c>
       <c r="I106" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J106">
-        <v>1.1350716399910019E-2</v>
+        <v>1.0066340913139113E-2</v>
       </c>
       <c r="M106" t="s">
         <v>14</v>
       </c>
       <c r="N106" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O106">
-        <v>0.16256512210980922</v>
+        <v>0.18493084492550116</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.45">
@@ -11951,19 +11951,19 @@
         <v>403</v>
       </c>
       <c r="I107" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J107">
-        <v>1.133123887777682E-2</v>
+        <v>1.0753848831812234E-2</v>
       </c>
       <c r="M107" t="s">
         <v>14</v>
       </c>
       <c r="N107" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O107">
-        <v>0.16422492836868141</v>
+        <v>0.16245964529931345</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.45">
@@ -11983,19 +11983,19 @@
         <v>403</v>
       </c>
       <c r="I108" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J108">
-        <v>1.1285591775960819E-2</v>
+        <v>1.1046794536179667E-2</v>
       </c>
       <c r="M108" t="s">
         <v>14</v>
       </c>
       <c r="N108" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O108">
-        <v>0.16538777747328015</v>
+        <v>0.154420712629048</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.45">
@@ -12015,19 +12015,19 @@
         <v>403</v>
       </c>
       <c r="I109" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J109">
-        <v>1.1246914676576675E-2</v>
+        <v>1.1080501375250094E-2</v>
       </c>
       <c r="M109" t="s">
         <v>14</v>
       </c>
       <c r="N109" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O109">
-        <v>0.17040831579330096</v>
+        <v>0.15419106188447329</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.45">
@@ -12047,19 +12047,19 @@
         <v>403</v>
       </c>
       <c r="I110" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J110">
-        <v>1.1284031008545097E-2</v>
+        <v>1.1026789496191824E-2</v>
       </c>
       <c r="M110" t="s">
         <v>14</v>
       </c>
       <c r="N110" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="O110">
-        <v>0.17166875133510584</v>
+        <v>0.15843009691911858</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.45">
@@ -12079,19 +12079,19 @@
         <v>403</v>
       </c>
       <c r="I111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J111">
-        <v>1.1337310904435249E-2</v>
+        <v>1.0971651638043513E-2</v>
       </c>
       <c r="M111" t="s">
         <v>14</v>
       </c>
       <c r="N111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O111">
-        <v>0.1694462484015451</v>
+        <v>0.16256512210980922</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.45">
@@ -12111,19 +12111,19 @@
         <v>403</v>
       </c>
       <c r="I112" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J112">
-        <v>1.1347787288458594E-2</v>
+        <v>1.0952824580782228E-2</v>
       </c>
       <c r="M112" t="s">
         <v>14</v>
       </c>
       <c r="N112" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="O112">
-        <v>0.16867945484106217</v>
+        <v>0.16422492836868141</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.45">
@@ -12143,19 +12143,19 @@
         <v>403</v>
       </c>
       <c r="I113" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J113">
-        <v>1.1232098076315089E-2</v>
+        <v>1.0908701894445403E-2</v>
       </c>
       <c r="M113" t="s">
         <v>14</v>
       </c>
       <c r="N113" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O113">
-        <v>0.1707737223916086</v>
+        <v>0.16538777747328015</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.45">
@@ -12175,19 +12175,19 @@
         <v>403</v>
       </c>
       <c r="I114" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J114">
-        <v>1.0976495686521039E-2</v>
+        <v>1.087131644264994E-2</v>
       </c>
       <c r="M114" t="s">
         <v>14</v>
       </c>
       <c r="N114" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="O114">
-        <v>0.15221956903248079</v>
+        <v>0.17040831579330096</v>
       </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.45">
@@ -12207,19 +12207,19 @@
         <v>403</v>
       </c>
       <c r="I115" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J115">
-        <v>1.0206738025311909E-2</v>
+        <v>1.0907193249900866E-2</v>
       </c>
       <c r="M115" t="s">
         <v>14</v>
       </c>
       <c r="N115" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O115">
-        <v>0.10759493670886089</v>
+        <v>0.17166875133510584</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.45">
@@ -12239,19 +12239,19 @@
         <v>403</v>
       </c>
       <c r="I116" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J116">
-        <v>9.5689614224213643E-3</v>
+        <v>1.0958693828051388E-2</v>
       </c>
       <c r="M116" t="s">
         <v>14</v>
       </c>
       <c r="N116" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O116">
-        <v>9.2024465973805425E-2</v>
+        <v>0.1694462484015451</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.45">
@@ -12271,19 +12271,19 @@
         <v>403</v>
       </c>
       <c r="I117" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J117">
-        <v>8.9174586184226808E-3</v>
+        <v>1.0968820346227051E-2</v>
       </c>
       <c r="M117" t="s">
         <v>14</v>
       </c>
       <c r="N117" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O117">
-        <v>8.7299608291221853E-2</v>
+        <v>0.16867945484106217</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.45">
@@ -12303,19 +12303,19 @@
         <v>403</v>
       </c>
       <c r="I118" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J118">
-        <v>8.4235291822853213E-3</v>
+        <v>1.0856994652658644E-2</v>
       </c>
       <c r="M118" t="s">
         <v>14</v>
       </c>
       <c r="N118" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O118">
-        <v>0.15556596542032186</v>
+        <v>0.1707737223916086</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.45">
@@ -12335,19 +12335,19 @@
         <v>403</v>
       </c>
       <c r="I119" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J119">
-        <v>8.2487336979252592E-5</v>
+        <v>1.0609928275536055E-2</v>
       </c>
       <c r="M119" t="s">
         <v>14</v>
       </c>
       <c r="N119" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>0.15221956903248079</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.45">
@@ -12367,19 +12367,19 @@
         <v>403</v>
       </c>
       <c r="I120" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J120">
-        <v>8.261561923259968E-5</v>
+        <v>9.8658771859882061E-3</v>
       </c>
       <c r="M120" t="s">
         <v>14</v>
       </c>
       <c r="N120" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.10759493670886089</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.45">
@@ -12399,19 +12399,19 @@
         <v>403</v>
       </c>
       <c r="I121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J121">
-        <v>8.622890270187564E-5</v>
+        <v>9.2493995590901042E-3</v>
       </c>
       <c r="M121" t="s">
         <v>14</v>
       </c>
       <c r="N121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>9.2024465973805425E-2</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.45">
@@ -12431,19 +12431,19 @@
         <v>403</v>
       </c>
       <c r="I122" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J122">
-        <v>9.7752925127554636E-5</v>
+        <v>8.6196541267455195E-3</v>
       </c>
       <c r="M122" t="s">
         <v>14</v>
       </c>
       <c r="N122" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>8.7299608291221853E-2</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.45">
@@ -12463,19 +12463,19 @@
         <v>403</v>
       </c>
       <c r="I123" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J123">
-        <v>1.0908452417321303E-4</v>
+        <v>8.1422197943083786E-3</v>
       </c>
       <c r="M123" t="s">
         <v>14</v>
       </c>
       <c r="N123" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>0.15556596542032186</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.45">
@@ -12495,16 +12495,16 @@
         <v>403</v>
       </c>
       <c r="I124" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J124">
-        <v>1.2095063260781757E-4</v>
+        <v>8.0517939037657191E-5</v>
       </c>
       <c r="M124" t="s">
         <v>14</v>
       </c>
       <c r="N124" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O124">
         <v>0</v>
@@ -12527,16 +12527,16 @@
         <v>403</v>
       </c>
       <c r="I125" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J125">
-        <v>1.2956692395762952E-4</v>
+        <v>7.9732617219952613E-5</v>
       </c>
       <c r="M125" t="s">
         <v>14</v>
       </c>
       <c r="N125" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -12559,16 +12559,16 @@
         <v>403</v>
       </c>
       <c r="I126" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J126">
-        <v>1.3078560536442671E-4</v>
+        <v>7.9856615401695439E-5</v>
       </c>
       <c r="M126" t="s">
         <v>14</v>
       </c>
       <c r="N126" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -12591,16 +12591,16 @@
         <v>403</v>
       </c>
       <c r="I127" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J127">
-        <v>1.301655744732492E-4</v>
+        <v>8.3349230854118473E-5</v>
       </c>
       <c r="M127" t="s">
         <v>14</v>
       </c>
       <c r="N127" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -12623,16 +12623,16 @@
         <v>403</v>
       </c>
       <c r="I128" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J128">
-        <v>1.296096847087452E-4</v>
+        <v>9.4488400847349339E-5</v>
       </c>
       <c r="M128" t="s">
         <v>14</v>
       </c>
       <c r="N128" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -12655,16 +12655,16 @@
         <v>403</v>
       </c>
       <c r="I129" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J129">
-        <v>1.2796339579079105E-4</v>
+        <v>1.0544157356796596E-4</v>
       </c>
       <c r="M129" t="s">
         <v>14</v>
       </c>
       <c r="N129" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -12687,16 +12687,16 @@
         <v>403</v>
       </c>
       <c r="I130" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J130">
-        <v>1.2783511353744398E-4</v>
+        <v>1.1691140537917769E-4</v>
       </c>
       <c r="M130" t="s">
         <v>14</v>
       </c>
       <c r="N130" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="O130">
         <v>0</v>
@@ -12719,16 +12719,16 @@
         <v>403</v>
       </c>
       <c r="I131" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J131">
-        <v>1.269585181395723E-4</v>
+        <v>1.2523994991957111E-4</v>
       </c>
       <c r="M131" t="s">
         <v>14</v>
       </c>
       <c r="N131" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="O131">
         <v>0</v>
@@ -12751,16 +12751,16 @@
         <v>403</v>
       </c>
       <c r="I132" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J132">
-        <v>1.2642400875062615E-4</v>
+        <v>1.2641793264612798E-4</v>
       </c>
       <c r="M132" t="s">
         <v>14</v>
       </c>
       <c r="N132" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O132">
         <v>0</v>
@@ -12783,16 +12783,16 @@
         <v>403</v>
       </c>
       <c r="I133" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J133">
-        <v>1.2627434612172121E-4</v>
+        <v>1.2581860810103763E-4</v>
       </c>
       <c r="M133" t="s">
         <v>14</v>
       </c>
       <c r="N133" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -12815,16 +12815,16 @@
         <v>403</v>
       </c>
       <c r="I134" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J134">
-        <v>1.2706542001736154E-4</v>
+        <v>1.2528128264681872E-4</v>
       </c>
       <c r="M134" t="s">
         <v>14</v>
       </c>
       <c r="N134" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O134">
         <v>0</v>
@@ -12847,16 +12847,16 @@
         <v>403</v>
       </c>
       <c r="I135" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J135">
-        <v>1.2674471438399383E-4</v>
+        <v>1.2368997264778573E-4</v>
       </c>
       <c r="M135" t="s">
         <v>14</v>
       </c>
       <c r="N135" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="O135">
         <v>0</v>
@@ -12879,16 +12879,16 @@
         <v>403</v>
       </c>
       <c r="I136" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J136">
-        <v>1.2559017410387015E-4</v>
+        <v>1.2356597446604289E-4</v>
       </c>
       <c r="M136" t="s">
         <v>14</v>
       </c>
       <c r="N136" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -12911,16 +12911,16 @@
         <v>403</v>
       </c>
       <c r="I137" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J137">
-        <v>1.223189766435197E-4</v>
+        <v>1.2271865355746689E-4</v>
       </c>
       <c r="M137" t="s">
         <v>14</v>
       </c>
       <c r="N137" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -12943,16 +12943,16 @@
         <v>403</v>
       </c>
       <c r="I138" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J138">
-        <v>1.119067337468487E-4</v>
+        <v>1.2220199446687178E-4</v>
       </c>
       <c r="M138" t="s">
         <v>14</v>
       </c>
       <c r="N138" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -12975,16 +12975,16 @@
         <v>403</v>
       </c>
       <c r="I139" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J139">
-        <v>1.0649749873071368E-4</v>
+        <v>1.2205732992150514E-4</v>
       </c>
       <c r="M139" t="s">
         <v>14</v>
       </c>
       <c r="N139" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O139">
         <v>0</v>
@@ -13007,16 +13007,16 @@
         <v>403</v>
       </c>
       <c r="I140" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J140">
-        <v>9.6534243720757437E-5</v>
+        <v>1.2282198537558593E-4</v>
       </c>
       <c r="M140" t="s">
         <v>14</v>
       </c>
       <c r="N140" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -13039,16 +13039,16 @@
         <v>403</v>
       </c>
       <c r="I141" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J141">
-        <v>8.9756664668920257E-5</v>
+        <v>1.2251198992122884E-4</v>
       </c>
       <c r="M141" t="s">
         <v>14</v>
       </c>
       <c r="N141" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -13071,19 +13071,19 @@
         <v>403</v>
       </c>
       <c r="I142" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J142">
-        <v>1.0391046074423378E-2</v>
+        <v>1.2139600628554339E-4</v>
       </c>
       <c r="M142" t="s">
         <v>14</v>
       </c>
       <c r="N142" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O142">
-        <v>3.6067069627708115E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.45">
@@ -13103,19 +13103,19 @@
         <v>403</v>
       </c>
       <c r="I143" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J143">
-        <v>1.0374454902990491E-2</v>
+        <v>1.1823405265110123E-4</v>
       </c>
       <c r="M143" t="s">
         <v>14</v>
       </c>
       <c r="N143" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="O143">
-        <v>3.5815699099867704E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.45">
@@ -13135,19 +13135,19 @@
         <v>403</v>
       </c>
       <c r="I144" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J144">
-        <v>1.0416381819459426E-2</v>
+        <v>1.0816953356630822E-4</v>
       </c>
       <c r="M144" t="s">
         <v>14</v>
       </c>
       <c r="N144" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O144">
-        <v>3.915255402525375E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.45">
@@ -13167,19 +13167,19 @@
         <v>403</v>
       </c>
       <c r="I145" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J145">
-        <v>1.0977509775975095E-2</v>
+        <v>1.0294094356948558E-4</v>
       </c>
       <c r="M145" t="s">
         <v>14</v>
       </c>
       <c r="N145" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O145">
-        <v>5.3473248881545254E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.45">
@@ -13199,19 +13199,19 @@
         <v>403</v>
       </c>
       <c r="I146" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J146">
-        <v>1.1876982175693678E-2</v>
+        <v>9.3310418120792478E-5</v>
       </c>
       <c r="M146" t="s">
         <v>14</v>
       </c>
       <c r="N146" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O146">
-        <v>7.9485249319314777E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.45">
@@ -13231,19 +13231,19 @@
         <v>403</v>
       </c>
       <c r="I147" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J147">
-        <v>1.2774295157480917E-2</v>
+        <v>8.6759180852046298E-5</v>
       </c>
       <c r="M147" t="s">
         <v>14</v>
       </c>
       <c r="N147" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O147">
-        <v>9.5772787318362029E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.45">
@@ -13263,19 +13263,19 @@
         <v>403</v>
       </c>
       <c r="I148" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J148">
-        <v>1.3334738941978733E-2</v>
+        <v>1.0127770249997585E-2</v>
       </c>
       <c r="M148" t="s">
         <v>14</v>
       </c>
       <c r="N148" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="O148">
-        <v>8.9723238236037561E-2</v>
+        <v>3.3125599985165177E-2</v>
       </c>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.45">
@@ -13295,19 +13295,19 @@
         <v>403</v>
       </c>
       <c r="I149" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J149">
-        <v>1.3494942096033673E-2</v>
+        <v>1.0044030144593926E-2</v>
       </c>
       <c r="M149" t="s">
         <v>14</v>
       </c>
       <c r="N149" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O149">
-        <v>8.1824356255536301E-2</v>
+        <v>3.6067069627708115E-2</v>
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.45">
@@ -13327,19 +13327,19 @@
         <v>403</v>
       </c>
       <c r="I150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J150">
-        <v>1.3523057289892242E-2</v>
+        <v>1.0027993046421855E-2</v>
       </c>
       <c r="M150" t="s">
         <v>14</v>
       </c>
       <c r="N150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O150">
-        <v>6.2939168722591754E-2</v>
+        <v>3.5815699099867704E-2</v>
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.45">
@@ -13359,19 +13359,19 @@
         <v>403</v>
       </c>
       <c r="I151" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J151">
-        <v>1.348700997670171E-2</v>
+        <v>1.0068519785488136E-2</v>
       </c>
       <c r="M151" t="s">
         <v>14</v>
       </c>
       <c r="N151" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="O151">
-        <v>6.4116529719854043E-2</v>
+        <v>3.915255402525375E-2</v>
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.45">
@@ -13391,19 +13391,19 @@
         <v>403</v>
       </c>
       <c r="I152" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J152">
-        <v>1.3418849339423299E-2</v>
+        <v>1.0610908498794897E-2</v>
       </c>
       <c r="M152" t="s">
         <v>14</v>
       </c>
       <c r="N152" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O152">
-        <v>6.6888220332616655E-2</v>
+        <v>5.3473248881545254E-2</v>
       </c>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.45">
@@ -13423,19 +13423,19 @@
         <v>403</v>
       </c>
       <c r="I153" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J153">
-        <v>1.3335038267236542E-2</v>
+        <v>1.1480342416448372E-2</v>
       </c>
       <c r="M153" t="s">
         <v>14</v>
       </c>
       <c r="N153" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="O153">
-        <v>7.1045629403512445E-2</v>
+        <v>7.9485249319314777E-2</v>
       </c>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.45">
@@ -13455,19 +13455,19 @@
         <v>403</v>
       </c>
       <c r="I154" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J154">
-        <v>1.3312610253276361E-2</v>
+        <v>1.2347689031375841E-2</v>
       </c>
       <c r="M154" t="s">
         <v>14</v>
       </c>
       <c r="N154" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O154">
-        <v>7.2393343041597502E-2</v>
+        <v>9.5772787318362029E-2</v>
       </c>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.45">
@@ -13487,19 +13487,19 @@
         <v>403</v>
       </c>
       <c r="I155" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J155">
-        <v>1.3314085499189852E-2</v>
+        <v>1.2889416421046639E-2</v>
       </c>
       <c r="M155" t="s">
         <v>14</v>
       </c>
       <c r="N155" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O155">
-        <v>7.2304590373541311E-2</v>
+        <v>8.9723238236037561E-2</v>
       </c>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.45">
@@ -13519,19 +13519,19 @@
         <v>403</v>
       </c>
       <c r="I156" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J156">
-        <v>1.3472920309209092E-2</v>
+        <v>1.304426948367981E-2</v>
       </c>
       <c r="M156" t="s">
         <v>14</v>
       </c>
       <c r="N156" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="O156">
-        <v>6.73837784371909E-2</v>
+        <v>8.1824356255536301E-2</v>
       </c>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.45">
@@ -13551,19 +13551,19 @@
         <v>403</v>
       </c>
       <c r="I157" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J157">
-        <v>1.3662457338529397E-2</v>
+        <v>1.3071445751845115E-2</v>
       </c>
       <c r="M157" t="s">
         <v>14</v>
       </c>
       <c r="N157" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O157">
-        <v>5.7717669176028386E-2</v>
+        <v>6.2939168722591754E-2</v>
       </c>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.45">
@@ -13583,19 +13583,19 @@
         <v>403</v>
       </c>
       <c r="I158" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J158">
-        <v>1.3693886490599431E-2</v>
+        <v>1.3036602262775377E-2</v>
       </c>
       <c r="M158" t="s">
         <v>14</v>
       </c>
       <c r="N158" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O158">
-        <v>5.5891634282144054E-2</v>
+        <v>6.4116529719854043E-2</v>
       </c>
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.45">
@@ -13615,19 +13615,19 @@
         <v>403</v>
       </c>
       <c r="I159" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J159">
-        <v>1.361090925305943E-2</v>
+        <v>1.2970717895542688E-2</v>
       </c>
       <c r="M159" t="s">
         <v>14</v>
       </c>
       <c r="N159" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="O159">
-        <v>5.5266243986002994E-2</v>
+        <v>6.6888220332616655E-2</v>
       </c>
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.45">
@@ -13647,19 +13647,19 @@
         <v>403</v>
       </c>
       <c r="I160" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J160">
-        <v>1.30344943280199E-2</v>
+        <v>1.2889705750137374E-2</v>
       </c>
       <c r="M160" t="s">
         <v>14</v>
       </c>
       <c r="N160" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O160">
-        <v>5.4687404800608297E-2</v>
+        <v>7.1045629403512445E-2</v>
       </c>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.45">
@@ -13679,19 +13679,19 @@
         <v>403</v>
       </c>
       <c r="I161" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J161">
-        <v>1.1883930797749975E-2</v>
+        <v>1.2868026734696E-2</v>
       </c>
       <c r="M161" t="s">
         <v>14</v>
       </c>
       <c r="N161" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O161">
-        <v>4.1191551734930165E-2</v>
+        <v>7.2393343041597502E-2</v>
       </c>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.45">
@@ -13711,19 +13711,19 @@
         <v>403</v>
       </c>
       <c r="I162" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J162">
-        <v>1.1041287436264148E-2</v>
+        <v>1.2869452713786044E-2</v>
       </c>
       <c r="M162" t="s">
         <v>14</v>
       </c>
       <c r="N162" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O162">
-        <v>4.4993263864067545E-2</v>
+        <v>7.2304590373541311E-2</v>
       </c>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.45">
@@ -13743,19 +13743,19 @@
         <v>403</v>
       </c>
       <c r="I163" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J163">
-        <v>1.0375331498388362E-2</v>
+        <v>1.3022983129147292E-2</v>
       </c>
       <c r="M163" t="s">
         <v>14</v>
       </c>
       <c r="N163" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="O163">
-        <v>4.393541604430462E-2</v>
+        <v>6.73837784371909E-2</v>
       </c>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.45">
@@ -13775,19 +13775,19 @@
         <v>403</v>
       </c>
       <c r="I164" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J164">
-        <v>1.0579556845716907E-2</v>
+        <v>1.3206190442672322E-2</v>
       </c>
       <c r="M164" t="s">
         <v>14</v>
       </c>
       <c r="N164" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O164">
-        <v>3.0185995375617614E-2</v>
+        <v>5.7717669176028386E-2</v>
       </c>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.45">
@@ -13807,19 +13807,19 @@
         <v>403</v>
       </c>
       <c r="I165" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J165">
-        <v>1.1991418548987395E-4</v>
+        <v>1.3236569997199316E-2</v>
       </c>
       <c r="M165" t="s">
         <v>14</v>
       </c>
       <c r="N165" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="O165">
-        <v>0</v>
+        <v>5.5891634282144054E-2</v>
       </c>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.45">
@@ -13839,19 +13839,19 @@
         <v>403</v>
       </c>
       <c r="I166" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="J166">
-        <v>1.1967900135873763E-4</v>
+        <v>1.315636383997533E-2</v>
       </c>
       <c r="M166" t="s">
         <v>14</v>
       </c>
       <c r="N166" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="O166">
-        <v>0</v>
+        <v>5.5266243986002994E-2</v>
       </c>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.45">
@@ -13871,19 +13871,19 @@
         <v>403</v>
       </c>
       <c r="I167" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J167">
-        <v>1.2021351074768381E-4</v>
+        <v>1.2599198676677546E-2</v>
       </c>
       <c r="M167" t="s">
         <v>14</v>
       </c>
       <c r="N167" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="O167">
-        <v>0</v>
+        <v>5.4687404800608297E-2</v>
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.45">
@@ -13903,19 +13903,19 @@
         <v>403</v>
       </c>
       <c r="I168" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J168">
-        <v>1.2741869731067789E-4</v>
+        <v>1.1487058984626106E-2</v>
       </c>
       <c r="M168" t="s">
         <v>14</v>
       </c>
       <c r="N168" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O168">
-        <v>0</v>
+        <v>4.1191551734930165E-2</v>
       </c>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.45">
@@ -13935,19 +13935,19 @@
         <v>403</v>
       </c>
       <c r="I169" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J169">
-        <v>1.4253462283007502E-4</v>
+        <v>1.0672556261484707E-2</v>
       </c>
       <c r="M169" t="s">
         <v>14</v>
       </c>
       <c r="N169" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="O169">
-        <v>0</v>
+        <v>4.4993263864067545E-2</v>
       </c>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.45">
@@ -13967,19 +13967,19 @@
         <v>403</v>
       </c>
       <c r="I170" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J170">
-        <v>1.5583321642705526E-4</v>
+        <v>1.0028840367330431E-2</v>
       </c>
       <c r="M170" t="s">
         <v>14</v>
       </c>
       <c r="N170" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="O170">
-        <v>0</v>
+        <v>4.393541604430462E-2</v>
       </c>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.45">
@@ -13999,19 +13999,19 @@
         <v>403</v>
       </c>
       <c r="I171" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="J171">
-        <v>1.6156315707655796E-4</v>
+        <v>1.0226245472665015E-2</v>
       </c>
       <c r="M171" t="s">
         <v>14</v>
       </c>
       <c r="N171" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="O171">
-        <v>0</v>
+        <v>3.0185995375617614E-2</v>
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.45">
@@ -14031,16 +14031,16 @@
         <v>403</v>
       </c>
       <c r="I172" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="J172">
-        <v>1.6211904684106196E-4</v>
+        <v>1.165088956506691E-4</v>
       </c>
       <c r="M172" t="s">
         <v>14</v>
       </c>
       <c r="N172" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -14063,16 +14063,16 @@
         <v>403</v>
       </c>
       <c r="I173" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J173">
-        <v>1.6288874036114444E-4</v>
+        <v>1.1590957110557877E-4</v>
       </c>
       <c r="M173" t="s">
         <v>14</v>
       </c>
       <c r="N173" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -14095,16 +14095,16 @@
         <v>403</v>
       </c>
       <c r="I174" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J174">
-        <v>1.6293150111226012E-4</v>
+        <v>1.156822411057169E-4</v>
       </c>
       <c r="M174" t="s">
         <v>14</v>
       </c>
       <c r="N174" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -14127,16 +14127,16 @@
         <v>403</v>
       </c>
       <c r="I175" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="J175">
-        <v>1.6293150111226012E-4</v>
+        <v>1.1619890019631204E-4</v>
       </c>
       <c r="M175" t="s">
         <v>14</v>
       </c>
       <c r="N175" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -14159,16 +14159,16 @@
         <v>403</v>
       </c>
       <c r="I176" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J176">
-        <v>1.624611328499875E-4</v>
+        <v>1.2316346473753429E-4</v>
       </c>
       <c r="M176" t="s">
         <v>14</v>
       </c>
       <c r="N176" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -14191,16 +14191,16 @@
         <v>403</v>
       </c>
       <c r="I177" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J177">
-        <v>1.6229008984552473E-4</v>
+        <v>1.377745838195644E-4</v>
       </c>
       <c r="M177" t="s">
         <v>14</v>
       </c>
       <c r="N177" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="O177">
         <v>0</v>
@@ -14223,16 +14223,16 @@
         <v>403</v>
       </c>
       <c r="I178" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J178">
-        <v>1.6229008984552473E-4</v>
+        <v>1.5062906199357108E-4</v>
       </c>
       <c r="M178" t="s">
         <v>14</v>
       </c>
       <c r="N178" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -14255,16 +14255,16 @@
         <v>403</v>
       </c>
       <c r="I179" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="J179">
-        <v>1.6320944599451212E-4</v>
+        <v>1.5616764744475078E-4</v>
       </c>
       <c r="M179" t="s">
         <v>14</v>
       </c>
       <c r="N179" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="O179">
         <v>0</v>
@@ -14287,16 +14287,16 @@
         <v>403</v>
       </c>
       <c r="I180" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="J180">
-        <v>1.6350877125232194E-4</v>
+        <v>1.5670497289896972E-4</v>
       </c>
       <c r="M180" t="s">
         <v>14</v>
       </c>
       <c r="N180" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -14319,16 +14319,16 @@
         <v>403</v>
       </c>
       <c r="I181" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="J181">
-        <v>1.6415018251905733E-4</v>
+        <v>1.574489619894267E-4</v>
       </c>
       <c r="M181" t="s">
         <v>14</v>
       </c>
       <c r="N181" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -14351,16 +14351,16 @@
         <v>403</v>
       </c>
       <c r="I182" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="J182">
-        <v>1.630170226144915E-4</v>
+        <v>1.5749029471667431E-4</v>
       </c>
       <c r="M182" t="s">
         <v>14</v>
       </c>
       <c r="N182" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -14383,16 +14383,16 @@
         <v>403</v>
       </c>
       <c r="I183" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="J183">
-        <v>1.5606840055819155E-4</v>
+        <v>1.5749029471667431E-4</v>
       </c>
       <c r="M183" t="s">
         <v>14</v>
       </c>
       <c r="N183" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>403</v>
       </c>
       <c r="I184" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="J184">
-        <v>1.3994759738757568E-4</v>
+        <v>1.5703563471695061E-4</v>
       </c>
       <c r="M184" t="s">
         <v>14</v>
       </c>
       <c r="N184" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="O184">
         <v>0</v>
@@ -14447,16 +14447,16 @@
         <v>403</v>
       </c>
       <c r="I185" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="J185">
-        <v>1.3075403589770187E-4</v>
+        <v>1.5687030380796016E-4</v>
       </c>
       <c r="M185" t="s">
         <v>14</v>
       </c>
       <c r="N185" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O185">
         <v>0</v>
@@ -14479,16 +14479,16 @@
         <v>403</v>
       </c>
       <c r="I186" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J186">
-        <v>1.227363950635096E-4</v>
+        <v>1.5687030380796016E-4</v>
       </c>
       <c r="M186" t="s">
         <v>14</v>
       </c>
       <c r="N186" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="O186">
         <v>0</v>
@@ -14511,16 +14511,16 @@
         <v>403</v>
       </c>
       <c r="I187" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J187">
-        <v>1.2117562764778686E-4</v>
+        <v>1.5775895744378376E-4</v>
       </c>
       <c r="M187" t="s">
         <v>14</v>
       </c>
       <c r="N187" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -14540,13 +14540,22 @@
         <v>399</v>
       </c>
       <c r="H188" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I188" t="s">
-        <v>202</v>
+        <v>388</v>
       </c>
       <c r="J188">
-        <v>1.066993709161052E-2</v>
+        <v>1.5804828653451702E-4</v>
+      </c>
+      <c r="M188" t="s">
+        <v>14</v>
+      </c>
+      <c r="N188" t="s">
+        <v>388</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.45">
@@ -14563,13 +14572,22 @@
         <v>399</v>
       </c>
       <c r="H189" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I189" t="s">
-        <v>205</v>
+        <v>389</v>
       </c>
       <c r="J189">
-        <v>1.0670515597756326E-2</v>
+        <v>1.5866827744323117E-4</v>
+      </c>
+      <c r="M189" t="s">
+        <v>14</v>
+      </c>
+      <c r="N189" t="s">
+        <v>389</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.45">
@@ -14586,13 +14604,22 @@
         <v>399</v>
       </c>
       <c r="H190" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I190" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="J190">
-        <v>1.0684583064086315E-2</v>
+        <v>1.5757296017116954E-4</v>
+      </c>
+      <c r="M190" t="s">
+        <v>14</v>
+      </c>
+      <c r="N190" t="s">
+        <v>390</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.45">
@@ -14609,13 +14636,22 @@
         <v>399</v>
       </c>
       <c r="H191" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I191" t="s">
-        <v>207</v>
+        <v>391</v>
       </c>
       <c r="J191">
-        <v>1.0738342062472135E-2</v>
+        <v>1.5085639199343293E-4</v>
+      </c>
+      <c r="M191" t="s">
+        <v>14</v>
+      </c>
+      <c r="N191" t="s">
+        <v>391</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.45">
@@ -14632,16 +14668,25 @@
         <v>399</v>
       </c>
       <c r="H192" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I192" t="s">
-        <v>208</v>
+        <v>392</v>
       </c>
       <c r="J192">
-        <v>1.081616992175026E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.45">
+        <v>1.3527395382108398E-4</v>
+      </c>
+      <c r="M192" t="s">
+        <v>14</v>
+      </c>
+      <c r="N192" t="s">
+        <v>392</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B193">
         <v>1.1415525114155251E-4</v>
       </c>
@@ -14655,16 +14700,25 @@
         <v>399</v>
       </c>
       <c r="H193" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I193" t="s">
-        <v>209</v>
+        <v>393</v>
       </c>
       <c r="J193">
-        <v>1.0877338306642507E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.45">
+        <v>1.2638741746284787E-4</v>
+      </c>
+      <c r="M193" t="s">
+        <v>14</v>
+      </c>
+      <c r="N193" t="s">
+        <v>393</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B194">
         <v>1.1415525114155251E-4</v>
       </c>
@@ -14678,16 +14732,25 @@
         <v>399</v>
       </c>
       <c r="H194" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I194" t="s">
-        <v>210</v>
+        <v>394</v>
       </c>
       <c r="J194">
-        <v>1.091399305708619E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.45">
+        <v>1.18637531103921E-4</v>
+      </c>
+      <c r="M194" t="s">
+        <v>14</v>
+      </c>
+      <c r="N194" t="s">
+        <v>394</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B195">
         <v>1.1415525114155251E-4</v>
       </c>
@@ -14701,156 +14764,165 @@
         <v>399</v>
       </c>
       <c r="H195" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I195" t="s">
+        <v>395</v>
+      </c>
+      <c r="J195">
+        <v>1.1712888655938323E-4</v>
+      </c>
+      <c r="M195" t="s">
+        <v>14</v>
+      </c>
+      <c r="N195" t="s">
+        <v>395</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H196" t="s">
+        <v>404</v>
+      </c>
+      <c r="I196" t="s">
+        <v>202</v>
+      </c>
+      <c r="J196">
+        <v>1.0237948545331515E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H197" t="s">
+        <v>404</v>
+      </c>
+      <c r="I197" t="s">
+        <v>205</v>
+      </c>
+      <c r="J197">
+        <v>1.0231509292963152E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H198" t="s">
+        <v>404</v>
+      </c>
+      <c r="I198" t="s">
+        <v>206</v>
+      </c>
+      <c r="J198">
+        <v>1.0232064028286896E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H199" t="s">
+        <v>404</v>
+      </c>
+      <c r="I199" t="s">
+        <v>207</v>
+      </c>
+      <c r="J199">
+        <v>1.0245553462315229E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H200" t="s">
+        <v>404</v>
+      </c>
+      <c r="I200" t="s">
+        <v>208</v>
+      </c>
+      <c r="J200">
+        <v>1.0297103503036404E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H201" t="s">
+        <v>404</v>
+      </c>
+      <c r="I201" t="s">
+        <v>209</v>
+      </c>
+      <c r="J201">
+        <v>1.0371733414967345E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H202" t="s">
+        <v>404</v>
+      </c>
+      <c r="I202" t="s">
+        <v>210</v>
+      </c>
+      <c r="J202">
+        <v>1.0430388390445378E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H203" t="s">
+        <v>404</v>
+      </c>
+      <c r="I203" t="s">
         <v>211</v>
       </c>
-      <c r="J195">
-        <v>1.0926137178308043E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H196" t="s">
-        <v>404</v>
-      </c>
-      <c r="I196" t="s">
+      <c r="J203">
+        <v>1.0465536996906298E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H204" t="s">
+        <v>404</v>
+      </c>
+      <c r="I204" t="s">
         <v>212</v>
       </c>
-      <c r="J196">
-        <v>1.0926676616506341E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H197" t="s">
-        <v>404</v>
-      </c>
-      <c r="I197" t="s">
+      <c r="J204">
+        <v>1.0477182116092047E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H205" t="s">
+        <v>404</v>
+      </c>
+      <c r="I205" t="s">
         <v>213</v>
       </c>
-      <c r="J197">
-        <v>1.0921761568187029E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H198" t="s">
-        <v>404</v>
-      </c>
-      <c r="I198" t="s">
+      <c r="J205">
+        <v>1.0477699388770552E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H206" t="s">
+        <v>404</v>
+      </c>
+      <c r="I206" t="s">
         <v>214</v>
       </c>
-      <c r="J198">
-        <v>1.091613428113236E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H199" t="s">
-        <v>404</v>
-      </c>
-      <c r="I199" t="s">
+      <c r="J206">
+        <v>1.047298629982517E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H207" t="s">
+        <v>404</v>
+      </c>
+      <c r="I207" t="s">
         <v>215</v>
       </c>
-      <c r="J199">
-        <v>1.0912625678923375E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H200" t="s">
-        <v>404</v>
-      </c>
-      <c r="I200" t="s">
+      <c r="J207">
+        <v>1.0467590238039642E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H208" t="s">
+        <v>404</v>
+      </c>
+      <c r="I208" t="s">
         <v>216</v>
       </c>
-      <c r="J200">
-        <v>1.0908346236057766E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H201" t="s">
-        <v>404</v>
-      </c>
-      <c r="I201" t="s">
-        <v>217</v>
-      </c>
-      <c r="J201">
-        <v>1.0905937546832499E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H202" t="s">
-        <v>404</v>
-      </c>
-      <c r="I202" t="s">
-        <v>218</v>
-      </c>
-      <c r="J202">
-        <v>1.0908544581022044E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H203" t="s">
-        <v>404</v>
-      </c>
-      <c r="I203" t="s">
-        <v>219</v>
-      </c>
-      <c r="J203">
-        <v>1.091118317009227E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H204" t="s">
-        <v>404</v>
-      </c>
-      <c r="I204" t="s">
-        <v>220</v>
-      </c>
-      <c r="J204">
-        <v>1.0912670757324347E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H205" t="s">
-        <v>404</v>
-      </c>
-      <c r="I205" t="s">
-        <v>221</v>
-      </c>
-      <c r="J205">
-        <v>1.0903963112869924E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H206" t="s">
-        <v>404</v>
-      </c>
-      <c r="I206" t="s">
-        <v>222</v>
-      </c>
-      <c r="J206">
-        <v>1.0882018947276764E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H207" t="s">
-        <v>404</v>
-      </c>
-      <c r="I207" t="s">
-        <v>223</v>
-      </c>
-      <c r="J207">
-        <v>1.0820396773148066E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H208" t="s">
-        <v>404</v>
-      </c>
-      <c r="I208" t="s">
-        <v>224</v>
-      </c>
       <c r="J208">
-        <v>1.0770618197568074E-2</v>
+        <v>1.0464225804322899E-2</v>
       </c>
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.45">
@@ -14858,10 +14930,10 @@
         <v>404</v>
       </c>
       <c r="I209" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J209">
-        <v>1.0722370785007762E-2</v>
+        <v>1.0460122203798151E-2</v>
       </c>
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.45">
@@ -14869,10 +14941,10 @@
         <v>404</v>
       </c>
       <c r="I210" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J210">
-        <v>1.0699207999974992E-2</v>
+        <v>1.045781248763201E-2</v>
       </c>
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.45">
@@ -14880,10 +14952,10 @@
         <v>404</v>
       </c>
       <c r="I211" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J211">
-        <v>1.1700118866466977E-4</v>
+        <v>1.0460312398766292E-2</v>
       </c>
     </row>
     <row r="212" spans="8:10" x14ac:dyDescent="0.45">
@@ -14891,10 +14963,10 @@
         <v>404</v>
       </c>
       <c r="I212" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="J212">
-        <v>1.1701471218496136E-4</v>
+        <v>1.0462842568190961E-2</v>
       </c>
     </row>
     <row r="213" spans="8:10" x14ac:dyDescent="0.45">
@@ -14902,10 +14974,10 @@
         <v>404</v>
       </c>
       <c r="I213" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="J213">
-        <v>1.1735430280561694E-4</v>
+        <v>1.0464269030452021E-2</v>
       </c>
     </row>
     <row r="214" spans="8:10" x14ac:dyDescent="0.45">
@@ -14913,10 +14985,10 @@
         <v>404</v>
       </c>
       <c r="I214" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J214">
-        <v>1.1833851456017187E-4</v>
+        <v>1.0455919183176419E-2</v>
       </c>
     </row>
     <row r="215" spans="8:10" x14ac:dyDescent="0.45">
@@ -14924,10 +14996,10 @@
         <v>404</v>
       </c>
       <c r="I215" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J215">
-        <v>1.1948951639832313E-4</v>
+        <v>1.043487670351932E-2</v>
       </c>
     </row>
     <row r="216" spans="8:10" x14ac:dyDescent="0.45">
@@ -14935,10 +15007,10 @@
         <v>404</v>
       </c>
       <c r="I216" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J216">
-        <v>1.2006050947730156E-4</v>
+        <v>1.0375786585008115E-2</v>
       </c>
     </row>
     <row r="217" spans="8:10" x14ac:dyDescent="0.45">
@@ -14946,10 +15018,10 @@
         <v>404</v>
       </c>
       <c r="I217" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="J217">
-        <v>1.2016268718617138E-4</v>
+        <v>1.0328053411488505E-2</v>
       </c>
     </row>
     <row r="218" spans="8:10" x14ac:dyDescent="0.45">
@@ -14957,10 +15029,10 @@
         <v>404</v>
       </c>
       <c r="I218" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="J218">
-        <v>1.2012662446539378E-4</v>
+        <v>1.0281788485488108E-2</v>
       </c>
     </row>
     <row r="219" spans="8:10" x14ac:dyDescent="0.45">
@@ -14968,10 +15040,10 @@
         <v>404</v>
       </c>
       <c r="I219" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="J219">
-        <v>1.2004999118374142E-4</v>
+        <v>1.0259577459473717E-2</v>
       </c>
     </row>
     <row r="220" spans="8:10" x14ac:dyDescent="0.45">
@@ -14979,10 +15051,10 @@
         <v>404</v>
       </c>
       <c r="I220" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J220">
-        <v>1.2003646766344982E-4</v>
+        <v>1.1225268461603859E-4</v>
       </c>
     </row>
     <row r="221" spans="8:10" x14ac:dyDescent="0.45">
@@ -14990,10 +15062,10 @@
         <v>404</v>
       </c>
       <c r="I221" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J221">
-        <v>1.2001993891642678E-4</v>
+        <v>1.1219360890623711E-4</v>
       </c>
     </row>
     <row r="222" spans="8:10" x14ac:dyDescent="0.45">
@@ -15001,10 +15073,10 @@
         <v>404</v>
       </c>
       <c r="I222" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="J222">
-        <v>1.2001993891642678E-4</v>
+        <v>1.1220657674497402E-4</v>
       </c>
     </row>
     <row r="223" spans="8:10" x14ac:dyDescent="0.45">
@@ -15012,10 +15084,10 @@
         <v>404</v>
       </c>
       <c r="I223" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J223">
-        <v>1.1995081870160307E-4</v>
+        <v>1.1253221358436763E-4</v>
       </c>
     </row>
     <row r="224" spans="8:10" x14ac:dyDescent="0.45">
@@ -15023,10 +15095,10 @@
         <v>404</v>
       </c>
       <c r="I224" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J224">
-        <v>1.1987418541995069E-4</v>
+        <v>1.1347598407022084E-4</v>
       </c>
     </row>
     <row r="225" spans="8:10" x14ac:dyDescent="0.45">
@@ -15034,10 +15106,10 @@
         <v>404</v>
       </c>
       <c r="I225" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J225">
-        <v>1.1984413315263604E-4</v>
+        <v>1.1457969123382929E-4</v>
       </c>
     </row>
     <row r="226" spans="8:10" x14ac:dyDescent="0.45">
@@ -15045,10 +15117,10 @@
         <v>404</v>
       </c>
       <c r="I226" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J226">
-        <v>1.1981858872541858E-4</v>
+        <v>1.1512722220272123E-4</v>
       </c>
     </row>
     <row r="227" spans="8:10" x14ac:dyDescent="0.45">
@@ -15056,10 +15128,10 @@
         <v>404</v>
       </c>
       <c r="I227" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J227">
-        <v>1.1976599725761795E-4</v>
+        <v>1.1522520142873346E-4</v>
       </c>
     </row>
     <row r="228" spans="8:10" x14ac:dyDescent="0.45">
@@ -15067,10 +15139,10 @@
         <v>404</v>
       </c>
       <c r="I228" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="J228">
-        <v>1.1960521762748453E-4</v>
+        <v>1.1519062052543502E-4</v>
       </c>
     </row>
     <row r="229" spans="8:10" x14ac:dyDescent="0.45">
@@ -15078,10 +15150,10 @@
         <v>404</v>
       </c>
       <c r="I229" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J229">
-        <v>1.194143857300365E-4</v>
+        <v>1.1511713610592584E-4</v>
       </c>
     </row>
     <row r="230" spans="8:10" x14ac:dyDescent="0.45">
@@ -15089,10 +15161,10 @@
         <v>404</v>
       </c>
       <c r="I230" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J230">
-        <v>1.1899515660099707E-4</v>
+        <v>1.1510416826718892E-4</v>
       </c>
     </row>
     <row r="231" spans="8:10" x14ac:dyDescent="0.45">
@@ -15100,10 +15172,10 @@
         <v>404</v>
       </c>
       <c r="I231" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="J231">
-        <v>1.1861199019273521E-4</v>
+        <v>1.1508831868651048E-4</v>
       </c>
     </row>
     <row r="232" spans="8:10" x14ac:dyDescent="0.45">
@@ -15111,10 +15183,10 @@
         <v>404</v>
       </c>
       <c r="I232" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J232">
-        <v>1.1782912862918848E-4</v>
+        <v>1.1508831868651048E-4</v>
       </c>
     </row>
     <row r="233" spans="8:10" x14ac:dyDescent="0.45">
@@ -15122,10 +15194,10 @@
         <v>404</v>
       </c>
       <c r="I233" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="J233">
-        <v>1.1742492563380639E-4</v>
+        <v>1.1502203862185514E-4</v>
       </c>
     </row>
     <row r="234" spans="8:10" x14ac:dyDescent="0.45">
@@ -15133,10 +15205,10 @@
         <v>404</v>
       </c>
       <c r="I234" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J234">
-        <v>1.0660523724188537E-2</v>
+        <v>1.1494855420234595E-4</v>
       </c>
     </row>
     <row r="235" spans="8:10" x14ac:dyDescent="0.45">
@@ -15144,10 +15216,10 @@
         <v>404</v>
       </c>
       <c r="I235" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="J235">
-        <v>1.065862141566752E-2</v>
+        <v>1.1491973678293059E-4</v>
       </c>
     </row>
     <row r="236" spans="8:10" x14ac:dyDescent="0.45">
@@ -15155,10 +15227,10 @@
         <v>404</v>
       </c>
       <c r="I236" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J236">
-        <v>1.0672155454252675E-2</v>
+        <v>1.1489524197642752E-4</v>
       </c>
     </row>
     <row r="237" spans="8:10" x14ac:dyDescent="0.45">
@@ -15166,10 +15238,10 @@
         <v>404</v>
       </c>
       <c r="I237" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J237">
-        <v>1.0706610378728925E-2</v>
+        <v>1.1484481149245066E-4</v>
       </c>
     </row>
     <row r="238" spans="8:10" x14ac:dyDescent="0.45">
@@ -15177,10 +15249,10 @@
         <v>404</v>
       </c>
       <c r="I238" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J238">
-        <v>1.0761174777878779E-2</v>
+        <v>1.1469063829857844E-4</v>
       </c>
     </row>
     <row r="239" spans="8:10" x14ac:dyDescent="0.45">
@@ -15188,10 +15260,10 @@
         <v>404</v>
       </c>
       <c r="I239" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J239">
-        <v>1.0829474565804792E-2</v>
+        <v>1.1450764768529089E-4</v>
       </c>
     </row>
     <row r="240" spans="8:10" x14ac:dyDescent="0.45">
@@ -15199,10 +15271,10 @@
         <v>404</v>
       </c>
       <c r="I240" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="J240">
-        <v>1.0879090859141285E-2</v>
+        <v>1.1410564468444655E-4</v>
       </c>
     </row>
     <row r="241" spans="8:10" x14ac:dyDescent="0.45">
@@ -15210,10 +15282,10 @@
         <v>404</v>
       </c>
       <c r="I241" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J241">
-        <v>1.0907386571431399E-2</v>
+        <v>1.1373822258690064E-4</v>
       </c>
     </row>
     <row r="242" spans="8:10" x14ac:dyDescent="0.45">
@@ -15221,10 +15293,10 @@
         <v>404</v>
       </c>
       <c r="I242" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J242">
-        <v>1.0914439838570147E-2</v>
+        <v>1.1298752881113039E-4</v>
       </c>
     </row>
     <row r="243" spans="8:10" x14ac:dyDescent="0.45">
@@ -15232,10 +15304,10 @@
         <v>404</v>
       </c>
       <c r="I243" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J243">
-        <v>1.091600255647051E-2</v>
+        <v>1.1259993451999374E-4</v>
       </c>
     </row>
     <row r="244" spans="8:10" x14ac:dyDescent="0.45">
@@ -15243,10 +15315,10 @@
         <v>404</v>
       </c>
       <c r="I244" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J244">
-        <v>1.0915826750706719E-2</v>
+        <v>1.0233443426356886E-2</v>
       </c>
     </row>
     <row r="245" spans="8:10" x14ac:dyDescent="0.45">
@@ -15254,10 +15326,10 @@
         <v>404</v>
       </c>
       <c r="I245" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J245">
-        <v>1.0918331607187394E-2</v>
+        <v>1.0222482720882251E-2</v>
       </c>
     </row>
     <row r="246" spans="8:10" x14ac:dyDescent="0.45">
@@ -15265,10 +15337,10 @@
         <v>404</v>
       </c>
       <c r="I246" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J246">
-        <v>1.0914507456171604E-2</v>
+        <v>1.0220658578233259E-2</v>
       </c>
     </row>
     <row r="247" spans="8:10" x14ac:dyDescent="0.45">
@@ -15276,10 +15348,10 @@
         <v>404</v>
       </c>
       <c r="I247" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J247">
-        <v>1.0908644258818517E-2</v>
+        <v>1.0233636503066969E-2</v>
       </c>
     </row>
     <row r="248" spans="8:10" x14ac:dyDescent="0.45">
@@ -15287,10 +15359,10 @@
         <v>404</v>
       </c>
       <c r="I248" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J248">
-        <v>1.0904095848160444E-2</v>
+        <v>1.0266675674426684E-2</v>
       </c>
     </row>
     <row r="249" spans="8:10" x14ac:dyDescent="0.45">
@@ -15298,10 +15370,10 @@
         <v>404</v>
       </c>
       <c r="I249" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J249">
-        <v>1.0899604536810268E-2</v>
+        <v>1.0318998021988192E-2</v>
       </c>
     </row>
     <row r="250" spans="8:10" x14ac:dyDescent="0.45">
@@ -15309,10 +15381,10 @@
         <v>404</v>
       </c>
       <c r="I250" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J250">
-        <v>1.0892521217404205E-2</v>
+        <v>1.038449137109349E-2</v>
       </c>
     </row>
     <row r="251" spans="8:10" x14ac:dyDescent="0.45">
@@ -15320,10 +15392,10 @@
         <v>404</v>
       </c>
       <c r="I251" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J251">
-        <v>1.0872123240964383E-2</v>
+        <v>1.0432068930548257E-2</v>
       </c>
     </row>
     <row r="252" spans="8:10" x14ac:dyDescent="0.45">
@@ -15331,10 +15403,10 @@
         <v>404</v>
       </c>
       <c r="I252" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="J252">
-        <v>1.0856602747509729E-2</v>
+        <v>1.0459201971798794E-2</v>
       </c>
     </row>
     <row r="253" spans="8:10" x14ac:dyDescent="0.45">
@@ -15342,10 +15414,10 @@
         <v>404</v>
       </c>
       <c r="I253" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J253">
-        <v>1.0823017836172238E-2</v>
+        <v>1.046596542013558E-2</v>
       </c>
     </row>
     <row r="254" spans="8:10" x14ac:dyDescent="0.45">
@@ -15353,10 +15425,10 @@
         <v>404</v>
       </c>
       <c r="I254" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="J254">
-        <v>1.0799377220089166E-2</v>
+        <v>1.046746392594518E-2</v>
       </c>
     </row>
     <row r="255" spans="8:10" x14ac:dyDescent="0.45">
@@ -15364,10 +15436,10 @@
         <v>404</v>
       </c>
       <c r="I255" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J255">
-        <v>1.077037527951716E-2</v>
+        <v>1.0467295344041599E-2</v>
       </c>
     </row>
     <row r="256" spans="8:10" x14ac:dyDescent="0.45">
@@ -15375,10 +15447,10 @@
         <v>404</v>
       </c>
       <c r="I256" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J256">
-        <v>1.0715023510963663E-2</v>
+        <v>1.0469697275949869E-2</v>
       </c>
     </row>
     <row r="257" spans="8:10" x14ac:dyDescent="0.45">
@@ -15386,10 +15458,10 @@
         <v>404</v>
       </c>
       <c r="I257" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J257">
-        <v>1.1714810850418172E-4</v>
+        <v>1.0466030259329264E-2</v>
       </c>
     </row>
     <row r="258" spans="8:10" x14ac:dyDescent="0.45">
@@ -15397,10 +15469,10 @@
         <v>404</v>
       </c>
       <c r="I258" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J258">
-        <v>1.1716613986457051E-4</v>
+        <v>1.0460407980801327E-2</v>
       </c>
     </row>
     <row r="259" spans="8:10" x14ac:dyDescent="0.45">
@@ -15408,10 +15480,10 @@
         <v>404</v>
       </c>
       <c r="I259" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="J259">
-        <v>1.1740806061645349E-4</v>
+        <v>1.0456046464372811E-2</v>
       </c>
     </row>
     <row r="260" spans="8:10" x14ac:dyDescent="0.45">
@@ -15419,10 +15491,10 @@
         <v>404</v>
       </c>
       <c r="I260" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="J260">
-        <v>1.1795200665484874E-4</v>
+        <v>1.0451739701041185E-2</v>
       </c>
     </row>
     <row r="261" spans="8:10" x14ac:dyDescent="0.45">
@@ -15430,10 +15502,10 @@
         <v>404</v>
       </c>
       <c r="I261" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="J261">
-        <v>1.1872735515156681E-4</v>
+        <v>1.0444947435284983E-2</v>
       </c>
     </row>
     <row r="262" spans="8:10" x14ac:dyDescent="0.45">
@@ -15441,10 +15513,10 @@
         <v>404</v>
       </c>
       <c r="I262" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J262">
-        <v>1.1960488135715471E-4</v>
+        <v>1.0425387611856806E-2</v>
       </c>
     </row>
     <row r="263" spans="8:10" x14ac:dyDescent="0.45">
@@ -15452,10 +15524,10 @@
         <v>404</v>
       </c>
       <c r="I263" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J263">
-        <v>1.2027805214500296E-4</v>
+        <v>1.041050485559974E-2</v>
       </c>
     </row>
     <row r="264" spans="8:10" x14ac:dyDescent="0.45">
@@ -15463,10 +15535,10 @@
         <v>404</v>
       </c>
       <c r="I264" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="J264">
-        <v>1.204313187083077E-4</v>
+        <v>1.0378299948532099E-2</v>
       </c>
     </row>
     <row r="265" spans="8:10" x14ac:dyDescent="0.45">
@@ -15474,10 +15546,10 @@
         <v>404</v>
       </c>
       <c r="I265" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J265">
-        <v>1.2047639710927967E-4</v>
+        <v>1.0355630725549002E-2</v>
       </c>
     </row>
     <row r="266" spans="8:10" x14ac:dyDescent="0.45">
@@ -15485,10 +15557,10 @@
         <v>404</v>
       </c>
       <c r="I266" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J266">
-        <v>1.2051696767015445E-4</v>
+        <v>1.0327820474942205E-2</v>
       </c>
     </row>
     <row r="267" spans="8:10" x14ac:dyDescent="0.45">
@@ -15496,10 +15568,10 @@
         <v>404</v>
       </c>
       <c r="I267" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J267">
-        <v>1.2062064799239001E-4</v>
+        <v>1.0274743110992015E-2</v>
       </c>
     </row>
     <row r="268" spans="8:10" x14ac:dyDescent="0.45">
@@ -15507,10 +15579,10 @@
         <v>404</v>
       </c>
       <c r="I268" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="J268">
-        <v>1.206522028730704E-4</v>
+        <v>1.1238348142139916E-4</v>
       </c>
     </row>
     <row r="269" spans="8:10" x14ac:dyDescent="0.45">
@@ -15518,10 +15590,10 @@
         <v>404</v>
       </c>
       <c r="I269" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="J269">
-        <v>1.2066422377999625E-4</v>
+        <v>1.1233449180839304E-4</v>
       </c>
     </row>
     <row r="270" spans="8:10" x14ac:dyDescent="0.45">
@@ -15529,10 +15601,10 @@
         <v>404</v>
       </c>
       <c r="I270" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J270">
-        <v>1.2060261663200122E-4</v>
+        <v>1.1235178226004225E-4</v>
       </c>
     </row>
     <row r="271" spans="8:10" x14ac:dyDescent="0.45">
@@ -15540,10 +15612,10 @@
         <v>404</v>
       </c>
       <c r="I271" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J271">
-        <v>1.205740669780523E-4</v>
+        <v>1.1258376248633595E-4</v>
       </c>
     </row>
     <row r="272" spans="8:10" x14ac:dyDescent="0.45">
@@ -15551,10 +15623,10 @@
         <v>404</v>
       </c>
       <c r="I272" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="J272">
-        <v>1.2051095721669153E-4</v>
+        <v>1.1310535777775405E-4</v>
       </c>
     </row>
     <row r="273" spans="8:10" x14ac:dyDescent="0.45">
@@ -15562,10 +15634,10 @@
         <v>404</v>
       </c>
       <c r="I273" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="J273">
-        <v>1.2033515145290079E-4</v>
+        <v>1.1384884719867044E-4</v>
       </c>
     </row>
     <row r="274" spans="8:10" x14ac:dyDescent="0.45">
@@ -15573,10 +15645,10 @@
         <v>404</v>
       </c>
       <c r="I274" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="J274">
-        <v>1.2006918888716611E-4</v>
+        <v>1.1469031584559909E-4</v>
       </c>
     </row>
     <row r="275" spans="8:10" x14ac:dyDescent="0.45">
@@ -15584,10 +15656,10 @@
         <v>404</v>
       </c>
       <c r="I275" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J275">
-        <v>1.1970705906602453E-4</v>
+        <v>1.1533582604050326E-4</v>
       </c>
     </row>
     <row r="276" spans="8:10" x14ac:dyDescent="0.45">
@@ -15595,10 +15667,10 @@
         <v>404</v>
       </c>
       <c r="I276" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="J276">
-        <v>1.1927130118996204E-4</v>
+        <v>1.1548279487952162E-4</v>
       </c>
     </row>
     <row r="277" spans="8:10" x14ac:dyDescent="0.45">
@@ -15606,10 +15678,10 @@
         <v>404</v>
       </c>
       <c r="I277" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J277">
-        <v>1.1902938043807909E-4</v>
+        <v>1.1552602100864467E-4</v>
       </c>
     </row>
     <row r="278" spans="8:10" x14ac:dyDescent="0.45">
@@ -15617,10 +15689,10 @@
         <v>404</v>
       </c>
       <c r="I278" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J278">
-        <v>1.188009832064877E-4</v>
+        <v>1.1556492452485542E-4</v>
       </c>
     </row>
     <row r="279" spans="8:10" x14ac:dyDescent="0.45">
@@ -15628,10 +15700,10 @@
         <v>404</v>
       </c>
       <c r="I279" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="J279">
-        <v>1.1798806937562631E-4</v>
+        <v>1.1566434462183841E-4</v>
       </c>
     </row>
     <row r="280" spans="8:10" x14ac:dyDescent="0.45">
@@ -15639,10 +15711,10 @@
         <v>404</v>
       </c>
       <c r="I280" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="J280">
-        <v>1.0544810325467379E-2</v>
+        <v>1.1569460291222456E-4</v>
       </c>
     </row>
     <row r="281" spans="8:10" x14ac:dyDescent="0.45">
@@ -15650,10 +15722,10 @@
         <v>404</v>
       </c>
       <c r="I281" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="J281">
-        <v>1.0544150678199821E-2</v>
+        <v>1.1570612987999068E-4</v>
       </c>
     </row>
     <row r="282" spans="8:10" x14ac:dyDescent="0.45">
@@ -15661,10 +15733,10 @@
         <v>404</v>
       </c>
       <c r="I282" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="J282">
-        <v>1.055461638029215E-2</v>
+        <v>1.1564705417018919E-4</v>
       </c>
     </row>
     <row r="283" spans="8:10" x14ac:dyDescent="0.45">
@@ -15672,10 +15744,10 @@
         <v>404</v>
       </c>
       <c r="I283" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="J283">
-        <v>1.0592608456631335E-2</v>
+        <v>1.156196776217446E-4</v>
       </c>
     </row>
     <row r="284" spans="8:10" x14ac:dyDescent="0.45">
@@ -15683,10 +15755,10 @@
         <v>404</v>
       </c>
       <c r="I284" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J284">
-        <v>1.0659606981382625E-2</v>
+        <v>1.1555916104097234E-4</v>
       </c>
     </row>
     <row r="285" spans="8:10" x14ac:dyDescent="0.45">
@@ -15694,10 +15766,10 @@
         <v>404</v>
       </c>
       <c r="I285" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="J285">
-        <v>1.0728844400048856E-2</v>
+        <v>1.1539057913739245E-4</v>
       </c>
     </row>
     <row r="286" spans="8:10" x14ac:dyDescent="0.45">
@@ -15705,10 +15777,10 @@
         <v>404</v>
       </c>
       <c r="I286" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="J286">
-        <v>1.0778831838886687E-2</v>
+        <v>1.1513554497556648E-4</v>
       </c>
     </row>
     <row r="287" spans="8:10" x14ac:dyDescent="0.45">
@@ -15716,10 +15788,10 @@
         <v>404</v>
       </c>
       <c r="I287" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="J287">
-        <v>1.0800131383345948E-2</v>
+        <v>1.1478829507161134E-4</v>
       </c>
     </row>
     <row r="288" spans="8:10" x14ac:dyDescent="0.45">
@@ -15727,10 +15799,10 @@
         <v>404</v>
       </c>
       <c r="I288" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="J288">
-        <v>1.0802582145745457E-2</v>
+        <v>1.1437044249008855E-4</v>
       </c>
     </row>
     <row r="289" spans="8:10" x14ac:dyDescent="0.45">
@@ -15738,10 +15810,10 @@
         <v>404</v>
       </c>
       <c r="I289" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="J289">
-        <v>1.0798676853607919E-2</v>
+        <v>1.1413846226379487E-4</v>
       </c>
     </row>
     <row r="290" spans="8:10" x14ac:dyDescent="0.45">
@@ -15749,10 +15821,10 @@
         <v>404</v>
       </c>
       <c r="I290" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="J290">
-        <v>1.0794667881148143E-2</v>
+        <v>1.1391944987623809E-4</v>
       </c>
     </row>
     <row r="291" spans="8:10" x14ac:dyDescent="0.45">
@@ -15760,10 +15832,10 @@
         <v>404</v>
       </c>
       <c r="I291" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="J291">
-        <v>1.079329900037196E-2</v>
+        <v>1.1313993868105247E-4</v>
       </c>
     </row>
     <row r="292" spans="8:10" x14ac:dyDescent="0.45">
@@ -15771,10 +15843,10 @@
         <v>404</v>
       </c>
       <c r="I292" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="J292">
-        <v>1.0790090920836121E-2</v>
+        <v>1.0121967419416789E-2</v>
       </c>
     </row>
     <row r="293" spans="8:10" x14ac:dyDescent="0.45">
@@ -15782,10 +15854,10 @@
         <v>404</v>
       </c>
       <c r="I293" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="J293">
-        <v>1.078737269325751E-2</v>
+        <v>1.0111523986620661E-2</v>
       </c>
     </row>
     <row r="294" spans="8:10" x14ac:dyDescent="0.45">
@@ -15793,10 +15865,10 @@
         <v>404</v>
       </c>
       <c r="I294" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="J294">
-        <v>1.0789981230060423E-2</v>
+        <v>1.0110891444264494E-2</v>
       </c>
     </row>
     <row r="295" spans="8:10" x14ac:dyDescent="0.45">
@@ -15804,10 +15876,10 @@
         <v>404</v>
       </c>
       <c r="I295" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="J295">
-        <v>1.0793725742567829E-2</v>
+        <v>1.0120927110575896E-2</v>
       </c>
     </row>
     <row r="296" spans="8:10" x14ac:dyDescent="0.45">
@@ -15815,10 +15887,10 @@
         <v>404</v>
       </c>
       <c r="I296" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J296">
-        <v>1.0794462023117037E-2</v>
+        <v>1.0157358092200797E-2</v>
       </c>
     </row>
     <row r="297" spans="8:10" x14ac:dyDescent="0.45">
@@ -15826,10 +15898,10 @@
         <v>404</v>
       </c>
       <c r="I297" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="J297">
-        <v>1.0786331382195057E-2</v>
+        <v>1.0221603647045413E-2</v>
       </c>
     </row>
     <row r="298" spans="8:10" x14ac:dyDescent="0.45">
@@ -15837,10 +15909,10 @@
         <v>404</v>
       </c>
       <c r="I298" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="J298">
-        <v>1.0768367639407724E-2</v>
+        <v>1.0287996099636472E-2</v>
       </c>
     </row>
     <row r="299" spans="8:10" x14ac:dyDescent="0.45">
@@ -15848,10 +15920,10 @@
         <v>404</v>
       </c>
       <c r="I299" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J299">
-        <v>1.0714269050401249E-2</v>
+        <v>1.0335929554221019E-2</v>
       </c>
     </row>
     <row r="300" spans="8:10" x14ac:dyDescent="0.45">
@@ -15859,10 +15931,10 @@
         <v>404</v>
       </c>
       <c r="I300" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J300">
-        <v>1.0669446093701442E-2</v>
+        <v>1.0356353900231657E-2</v>
       </c>
     </row>
     <row r="301" spans="8:10" x14ac:dyDescent="0.45">
@@ -15870,10 +15942,10 @@
         <v>404</v>
       </c>
       <c r="I301" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="J301">
-        <v>1.0623658459220836E-2</v>
+        <v>1.035870396078498E-2</v>
       </c>
     </row>
     <row r="302" spans="8:10" x14ac:dyDescent="0.45">
@@ -15881,10 +15953,10 @@
         <v>404</v>
       </c>
       <c r="I302" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J302">
-        <v>1.0588945085245679E-2</v>
+        <v>1.0354959137131954E-2</v>
       </c>
     </row>
     <row r="303" spans="8:10" x14ac:dyDescent="0.45">
@@ -15892,10 +15964,10 @@
         <v>404</v>
       </c>
       <c r="I303" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="J303">
-        <v>1.1718945521333132E-4</v>
+        <v>1.0351114893381943E-2</v>
       </c>
     </row>
     <row r="304" spans="8:10" x14ac:dyDescent="0.45">
@@ -15903,10 +15975,10 @@
         <v>404</v>
       </c>
       <c r="I304" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="J304">
-        <v>1.1719847089352572E-4</v>
+        <v>1.0349802259927574E-2</v>
       </c>
     </row>
     <row r="305" spans="8:10" x14ac:dyDescent="0.45">
@@ -15914,10 +15986,10 @@
         <v>404</v>
       </c>
       <c r="I305" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="J305">
-        <v>1.1745241255233455E-4</v>
+        <v>1.0346726000404984E-2</v>
       </c>
     </row>
     <row r="306" spans="8:10" x14ac:dyDescent="0.45">
@@ -15925,10 +15997,10 @@
         <v>404</v>
       </c>
       <c r="I306" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="J306">
-        <v>1.1826232115646447E-4</v>
+        <v>1.0344119464818865E-2</v>
       </c>
     </row>
     <row r="307" spans="8:10" x14ac:dyDescent="0.45">
@@ -15936,10 +16008,10 @@
         <v>404</v>
       </c>
       <c r="I307" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="J307">
-        <v>1.1905870624030281E-4</v>
+        <v>1.0346620816824118E-2</v>
       </c>
     </row>
     <row r="308" spans="8:10" x14ac:dyDescent="0.45">
@@ -15947,10 +16019,10 @@
         <v>404</v>
       </c>
       <c r="I308" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="J308">
-        <v>1.1989265665828447E-4</v>
+        <v>1.0350211467283273E-2</v>
       </c>
     </row>
     <row r="309" spans="8:10" x14ac:dyDescent="0.45">
@@ -15958,10 +16030,10 @@
         <v>404</v>
       </c>
       <c r="I309" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J309">
-        <v>1.2049820984467474E-4</v>
+        <v>1.0350917494058948E-2</v>
       </c>
     </row>
     <row r="310" spans="8:10" x14ac:dyDescent="0.45">
@@ -15969,10 +16041,10 @@
         <v>404</v>
       </c>
       <c r="I310" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="J310">
-        <v>1.2058385880652151E-4</v>
+        <v>1.0343120941236121E-2</v>
       </c>
     </row>
     <row r="311" spans="8:10" x14ac:dyDescent="0.45">
@@ -15980,10 +16052,10 @@
         <v>404</v>
       </c>
       <c r="I311" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="J311">
-        <v>1.2054028301891526E-4</v>
+        <v>1.0325895328780588E-2</v>
       </c>
     </row>
     <row r="312" spans="8:10" x14ac:dyDescent="0.45">
@@ -15991,10 +16063,10 @@
         <v>404</v>
       </c>
       <c r="I312" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="J312">
-        <v>1.205012150714062E-4</v>
+        <v>1.0274019651220019E-2</v>
       </c>
     </row>
     <row r="313" spans="8:10" x14ac:dyDescent="0.45">
@@ -16002,10 +16074,10 @@
         <v>404</v>
       </c>
       <c r="I313" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="J313">
-        <v>1.2038551384224479E-4</v>
+        <v>1.0231038470162003E-2</v>
       </c>
     </row>
     <row r="314" spans="8:10" x14ac:dyDescent="0.45">
@@ -16013,10 +16085,10 @@
         <v>404</v>
       </c>
       <c r="I314" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="J314">
-        <v>1.2037649816205039E-4</v>
+        <v>1.0187132249940754E-2</v>
       </c>
     </row>
     <row r="315" spans="8:10" x14ac:dyDescent="0.45">
@@ -16024,10 +16096,10 @@
         <v>404</v>
       </c>
       <c r="I315" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="J315">
-        <v>1.2031489101405536E-4</v>
+        <v>1.0153845248774065E-2</v>
       </c>
     </row>
     <row r="316" spans="8:10" x14ac:dyDescent="0.45">
@@ -16035,10 +16107,10 @@
         <v>404</v>
       </c>
       <c r="I316" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="J316">
-        <v>1.2027732567991204E-4</v>
+        <v>1.1242889267782911E-4</v>
       </c>
     </row>
     <row r="317" spans="8:10" x14ac:dyDescent="0.45">
@@ -16046,10 +16118,10 @@
         <v>404</v>
       </c>
       <c r="I317" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="J317">
-        <v>1.202668073863519E-4</v>
+        <v>1.123741395809399E-4</v>
       </c>
     </row>
     <row r="318" spans="8:10" x14ac:dyDescent="0.45">
@@ -16057,10 +16129,10 @@
         <v>404</v>
       </c>
       <c r="I318" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="J318">
-        <v>1.2032240408088401E-4</v>
+        <v>1.1238278480676451E-4</v>
       </c>
     </row>
     <row r="319" spans="8:10" x14ac:dyDescent="0.45">
@@ -16068,10 +16140,10 @@
         <v>404</v>
       </c>
       <c r="I319" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="J319">
-        <v>1.2029986488039803E-4</v>
+        <v>1.1262629200082435E-4</v>
       </c>
     </row>
     <row r="320" spans="8:10" x14ac:dyDescent="0.45">
@@ -16079,10 +16151,10 @@
         <v>404</v>
       </c>
       <c r="I320" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="J320">
-        <v>1.2021872375864847E-4</v>
+        <v>1.1340292145406843E-4</v>
       </c>
     </row>
     <row r="321" spans="8:10" x14ac:dyDescent="0.45">
@@ -16090,10 +16162,10 @@
         <v>404</v>
       </c>
       <c r="I321" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="J321">
-        <v>1.1998882391369137E-4</v>
+        <v>1.1416658306857558E-4</v>
       </c>
     </row>
     <row r="322" spans="8:10" x14ac:dyDescent="0.45">
@@ -16101,10 +16173,10 @@
         <v>404</v>
       </c>
       <c r="I322" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="J322">
-        <v>1.1925705120457953E-4</v>
+        <v>1.1496626645735196E-4</v>
       </c>
     </row>
     <row r="323" spans="8:10" x14ac:dyDescent="0.45">
@@ -16112,10 +16184,10 @@
         <v>404</v>
       </c>
       <c r="I323" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J323">
-        <v>1.1887689002304916E-4</v>
+        <v>1.1554693745857155E-4</v>
       </c>
     </row>
     <row r="324" spans="8:10" x14ac:dyDescent="0.45">
@@ -16123,10 +16195,10 @@
         <v>404</v>
       </c>
       <c r="I324" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="J324">
-        <v>1.1817667219461772E-4</v>
+        <v>1.1562906710390533E-4</v>
       </c>
     </row>
     <row r="325" spans="8:10" x14ac:dyDescent="0.45">
@@ -16134,10 +16206,10 @@
         <v>404</v>
       </c>
       <c r="I325" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="J325">
-        <v>1.1770034375768044E-4</v>
+        <v>1.1558728184575305E-4</v>
       </c>
     </row>
     <row r="326" spans="8:10" x14ac:dyDescent="0.45">
@@ -16145,10 +16217,10 @@
         <v>404</v>
       </c>
       <c r="I326" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="J326">
-        <v>1.0471032546427381E-2</v>
+        <v>1.1554981920051308E-4</v>
       </c>
     </row>
     <row r="327" spans="8:10" x14ac:dyDescent="0.45">
@@ -16156,10 +16228,10 @@
         <v>404</v>
       </c>
       <c r="I327" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="J327">
-        <v>1.0469866518455571E-2</v>
+        <v>1.1543887213576393E-4</v>
       </c>
     </row>
     <row r="328" spans="8:10" x14ac:dyDescent="0.45">
@@ -16167,10 +16239,10 @@
         <v>404</v>
       </c>
       <c r="I328" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="J328">
-        <v>1.0472813143265773E-2</v>
+        <v>1.1543022690993932E-4</v>
       </c>
     </row>
     <row r="329" spans="8:10" x14ac:dyDescent="0.45">
@@ -16178,10 +16250,10 @@
         <v>404</v>
       </c>
       <c r="I329" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="J329">
-        <v>1.0512249231049427E-2</v>
+        <v>1.1537115120013782E-4</v>
       </c>
     </row>
     <row r="330" spans="8:10" x14ac:dyDescent="0.45">
@@ -16189,10 +16261,10 @@
         <v>404</v>
       </c>
       <c r="I330" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="J330">
-        <v>1.0575464175345802E-2</v>
+        <v>1.1533512942586862E-4</v>
       </c>
     </row>
     <row r="331" spans="8:10" x14ac:dyDescent="0.45">
@@ -16200,10 +16272,10 @@
         <v>404</v>
       </c>
       <c r="I331" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="J331">
-        <v>1.0638527355692238E-2</v>
+        <v>1.1532504332907324E-4</v>
       </c>
     </row>
     <row r="332" spans="8:10" x14ac:dyDescent="0.45">
@@ -16211,10 +16283,10 @@
         <v>404</v>
       </c>
       <c r="I332" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="J332">
-        <v>1.0677915359848189E-2</v>
+        <v>1.1537835555499165E-4</v>
       </c>
     </row>
     <row r="333" spans="8:10" x14ac:dyDescent="0.45">
@@ -16222,10 +16294,10 @@
         <v>404</v>
       </c>
       <c r="I333" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="J333">
-        <v>1.0689174441797625E-2</v>
+        <v>1.1535674249043014E-4</v>
       </c>
     </row>
     <row r="334" spans="8:10" x14ac:dyDescent="0.45">
@@ -16233,10 +16305,10 @@
         <v>404</v>
       </c>
       <c r="I334" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="J334">
-        <v>1.0691150378373563E-2</v>
+        <v>1.1527893545800865E-4</v>
       </c>
     </row>
     <row r="335" spans="8:10" x14ac:dyDescent="0.45">
@@ -16244,10 +16316,10 @@
         <v>404</v>
       </c>
       <c r="I335" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="J335">
-        <v>1.0688616972238938E-2</v>
+        <v>1.1505848219948113E-4</v>
       </c>
     </row>
     <row r="336" spans="8:10" x14ac:dyDescent="0.45">
@@ -16255,10 +16327,10 @@
         <v>404</v>
       </c>
       <c r="I336" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="J336">
-        <v>1.0683826640828982E-2</v>
+        <v>1.1435677803671699E-4</v>
       </c>
     </row>
     <row r="337" spans="8:10" x14ac:dyDescent="0.45">
@@ -16266,10 +16338,10 @@
         <v>404</v>
       </c>
       <c r="I337" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="J337">
-        <v>1.0677936396435311E-2</v>
+        <v>1.1399223768111263E-4</v>
       </c>
     </row>
     <row r="338" spans="8:10" x14ac:dyDescent="0.45">
@@ -16277,10 +16349,10 @@
         <v>404</v>
       </c>
       <c r="I338" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="J338">
-        <v>1.0676360155014657E-2</v>
+        <v>1.1332079180873463E-4</v>
       </c>
     </row>
     <row r="339" spans="8:10" x14ac:dyDescent="0.45">
@@ -16288,10 +16360,10 @@
         <v>404</v>
       </c>
       <c r="I339" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="J339">
-        <v>1.0676463835336892E-2</v>
+        <v>1.128640357110011E-4</v>
       </c>
     </row>
     <row r="340" spans="8:10" x14ac:dyDescent="0.45">
@@ -16299,10 +16371,10 @@
         <v>404</v>
       </c>
       <c r="I340" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="J340">
-        <v>1.068762675003092E-2</v>
+        <v>1.0046616146272702E-2</v>
       </c>
     </row>
     <row r="341" spans="8:10" x14ac:dyDescent="0.45">
@@ -16310,10 +16382,10 @@
         <v>404</v>
       </c>
       <c r="I341" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="J341">
-        <v>1.070094741751814E-2</v>
+        <v>1.0040777737099148E-2</v>
       </c>
     </row>
     <row r="342" spans="8:10" x14ac:dyDescent="0.45">
@@ -16321,10 +16393,10 @@
         <v>404</v>
       </c>
       <c r="I342" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="J342">
-        <v>1.0703156259165767E-2</v>
+        <v>1.0039659621225832E-2</v>
       </c>
     </row>
     <row r="343" spans="8:10" x14ac:dyDescent="0.45">
@@ -16332,10 +16404,10 @@
         <v>404</v>
       </c>
       <c r="I343" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="J343">
-        <v>1.0697324616693359E-2</v>
+        <v>1.0042485169199509E-2</v>
       </c>
     </row>
     <row r="344" spans="8:10" x14ac:dyDescent="0.45">
@@ -16343,10 +16415,10 @@
         <v>404</v>
       </c>
       <c r="I344" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="J344">
-        <v>1.0656814160353207E-2</v>
+        <v>1.0080300827827321E-2</v>
       </c>
     </row>
     <row r="345" spans="8:10" x14ac:dyDescent="0.45">
@@ -16354,10 +16426,10 @@
         <v>404</v>
       </c>
       <c r="I345" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="J345">
-        <v>1.0575952524689666E-2</v>
+        <v>1.0140918269567541E-2</v>
       </c>
     </row>
     <row r="346" spans="8:10" x14ac:dyDescent="0.45">
@@ -16365,10 +16437,10 @@
         <v>404</v>
       </c>
       <c r="I346" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="J346">
-        <v>1.0516731526719407E-2</v>
+        <v>1.0201390183339713E-2</v>
       </c>
     </row>
     <row r="347" spans="8:10" x14ac:dyDescent="0.45">
@@ -16376,10 +16448,10 @@
         <v>404</v>
       </c>
       <c r="I347" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="J347">
-        <v>1.0469928125603566E-2</v>
+        <v>1.023915973409646E-2</v>
       </c>
     </row>
     <row r="348" spans="8:10" x14ac:dyDescent="0.45">
@@ -16387,10 +16459,10 @@
         <v>404</v>
       </c>
       <c r="I348" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="J348">
-        <v>1.0484281088473045E-2</v>
+        <v>1.0249956180280427E-2</v>
       </c>
     </row>
     <row r="349" spans="8:10" x14ac:dyDescent="0.45">
@@ -16398,10 +16470,10 @@
         <v>404</v>
       </c>
       <c r="I349" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="J349">
-        <v>1.1776438901703989E-4</v>
+        <v>1.0251850925606987E-2</v>
       </c>
     </row>
     <row r="350" spans="8:10" x14ac:dyDescent="0.45">
@@ -16409,10 +16481,10 @@
         <v>404</v>
       </c>
       <c r="I350" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="J350">
-        <v>1.1774786027001683E-4</v>
+        <v>1.0249421617150272E-2</v>
       </c>
     </row>
     <row r="351" spans="8:10" x14ac:dyDescent="0.45">
@@ -16420,10 +16492,10 @@
         <v>404</v>
       </c>
       <c r="I351" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="J351">
-        <v>1.1778542560416013E-4</v>
+        <v>1.0244828120495464E-2</v>
       </c>
     </row>
     <row r="352" spans="8:10" x14ac:dyDescent="0.45">
@@ -16431,10 +16503,10 @@
         <v>404</v>
       </c>
       <c r="I352" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="J352">
-        <v>1.1829180630841204E-4</v>
+        <v>1.0239179906290051E-2</v>
       </c>
     </row>
     <row r="353" spans="8:10" x14ac:dyDescent="0.45">
@@ -16442,10 +16514,10 @@
         <v>404</v>
       </c>
       <c r="I353" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="J353">
-        <v>1.1935415395798507E-4</v>
+        <v>1.0237668432641714E-2</v>
       </c>
     </row>
     <row r="354" spans="8:10" x14ac:dyDescent="0.45">
@@ -16453,10 +16525,10 @@
         <v>404</v>
       </c>
       <c r="I354" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="J354">
-        <v>1.2028877947147082E-4</v>
+        <v>1.0237767852738697E-2</v>
       </c>
     </row>
     <row r="355" spans="8:10" x14ac:dyDescent="0.45">
@@ -16464,10 +16536,10 @@
         <v>404</v>
       </c>
       <c r="I355" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="J355">
-        <v>1.2069147985348719E-4</v>
+        <v>1.0248472083180535E-2</v>
       </c>
     </row>
     <row r="356" spans="8:10" x14ac:dyDescent="0.45">
@@ -16475,10 +16547,10 @@
         <v>404</v>
       </c>
       <c r="I356" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="J356">
-        <v>1.2073054780099625E-4</v>
+        <v>1.0261245404336396E-2</v>
       </c>
     </row>
     <row r="357" spans="8:10" x14ac:dyDescent="0.45">
@@ -16486,10 +16558,10 @@
         <v>404</v>
       </c>
       <c r="I357" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="J357">
-        <v>1.2078464188216262E-4</v>
+        <v>1.0263363484663425E-2</v>
       </c>
     </row>
     <row r="358" spans="8:10" x14ac:dyDescent="0.45">
@@ -16497,10 +16569,10 @@
         <v>404</v>
       </c>
       <c r="I358" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="J358">
-        <v>1.2078764710889408E-4</v>
+        <v>1.0257771464425873E-2</v>
       </c>
     </row>
     <row r="359" spans="8:10" x14ac:dyDescent="0.45">
@@ -16508,10 +16580,10 @@
         <v>404</v>
       </c>
       <c r="I359" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="J359">
-        <v>1.2078764710889408E-4</v>
+        <v>1.0218925583053963E-2</v>
       </c>
     </row>
     <row r="360" spans="8:10" x14ac:dyDescent="0.45">
@@ -16519,10 +16591,10 @@
         <v>404</v>
       </c>
       <c r="I360" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="J360">
-        <v>1.2075458961484794E-4</v>
+        <v>1.0141386552633041E-2</v>
       </c>
     </row>
     <row r="361" spans="8:10" x14ac:dyDescent="0.45">
@@ -16530,10 +16602,10 @@
         <v>404</v>
       </c>
       <c r="I361" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="J361">
-        <v>1.2074256870792211E-4</v>
+        <v>1.0084598945933122E-2</v>
       </c>
     </row>
     <row r="362" spans="8:10" x14ac:dyDescent="0.45">
@@ -16541,10 +16613,10 @@
         <v>404</v>
       </c>
       <c r="I362" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="J362">
-        <v>1.2074256870792211E-4</v>
+        <v>1.0039718696935634E-2</v>
       </c>
     </row>
     <row r="363" spans="8:10" x14ac:dyDescent="0.45">
@@ -16552,10 +16624,10 @@
         <v>404</v>
       </c>
       <c r="I363" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="J363">
-        <v>1.208071810826486E-4</v>
+        <v>1.0053481896448412E-2</v>
       </c>
     </row>
     <row r="364" spans="8:10" x14ac:dyDescent="0.45">
@@ -16563,10 +16635,10 @@
         <v>404</v>
       </c>
       <c r="I364" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="J364">
-        <v>1.2082821766976886E-4</v>
+        <v>1.1296723460830421E-4</v>
       </c>
     </row>
     <row r="365" spans="8:10" x14ac:dyDescent="0.45">
@@ -16574,10 +16646,10 @@
         <v>404</v>
       </c>
       <c r="I365" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J365">
-        <v>1.2087329607074085E-4</v>
+        <v>1.1292544935015194E-4</v>
       </c>
     </row>
     <row r="366" spans="8:10" x14ac:dyDescent="0.45">
@@ -16585,10 +16657,10 @@
         <v>404</v>
       </c>
       <c r="I366" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="J366">
-        <v>1.20793657562357E-4</v>
+        <v>1.1290959976947349E-4</v>
       </c>
     </row>
     <row r="367" spans="8:10" x14ac:dyDescent="0.45">
@@ -16596,10 +16668,10 @@
         <v>404</v>
       </c>
       <c r="I367" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J367">
-        <v>1.2030530821849387E-4</v>
+        <v>1.1294562154374269E-4</v>
       </c>
     </row>
     <row r="368" spans="8:10" x14ac:dyDescent="0.45">
@@ -16607,10 +16679,10 @@
         <v>404</v>
       </c>
       <c r="I368" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J368">
-        <v>1.1917233774073141E-4</v>
+        <v>1.1343119506089157E-4</v>
       </c>
     </row>
     <row r="369" spans="8:10" x14ac:dyDescent="0.45">
@@ -16618,10 +16690,10 @@
         <v>404</v>
       </c>
       <c r="I369" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J369">
-        <v>1.1852621399346635E-4</v>
+        <v>1.1444989083722471E-4</v>
       </c>
     </row>
     <row r="370" spans="8:10" x14ac:dyDescent="0.45">
@@ -16629,10 +16701,10 @@
         <v>404</v>
       </c>
       <c r="I370" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="J370">
-        <v>1.179627339813166E-4</v>
+        <v>1.1534611258104255E-4</v>
       </c>
     </row>
     <row r="371" spans="8:10" x14ac:dyDescent="0.45">
@@ -16640,10 +16712,186 @@
         <v>404</v>
       </c>
       <c r="I371" t="s">
+        <v>379</v>
+      </c>
+      <c r="J371">
+        <v>1.1573226600120844E-4</v>
+      </c>
+    </row>
+    <row r="372" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H372" t="s">
+        <v>404</v>
+      </c>
+      <c r="I372" t="s">
+        <v>380</v>
+      </c>
+      <c r="J372">
+        <v>1.1576972864644843E-4</v>
+      </c>
+    </row>
+    <row r="373" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H373" t="s">
+        <v>404</v>
+      </c>
+      <c r="I373" t="s">
+        <v>381</v>
+      </c>
+      <c r="J373">
+        <v>1.1582160000139609E-4</v>
+      </c>
+    </row>
+    <row r="374" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H374" t="s">
+        <v>404</v>
+      </c>
+      <c r="I374" t="s">
+        <v>382</v>
+      </c>
+      <c r="J374">
+        <v>1.1582448174333761E-4</v>
+      </c>
+    </row>
+    <row r="375" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H375" t="s">
+        <v>404</v>
+      </c>
+      <c r="I375" t="s">
+        <v>383</v>
+      </c>
+      <c r="J375">
+        <v>1.1582448174333761E-4</v>
+      </c>
+    </row>
+    <row r="376" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H376" t="s">
+        <v>404</v>
+      </c>
+      <c r="I376" t="s">
+        <v>384</v>
+      </c>
+      <c r="J376">
+        <v>1.157927825819807E-4</v>
+      </c>
+    </row>
+    <row r="377" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H377" t="s">
+        <v>404</v>
+      </c>
+      <c r="I377" t="s">
+        <v>385</v>
+      </c>
+      <c r="J377">
+        <v>1.1578125561421458E-4</v>
+      </c>
+    </row>
+    <row r="378" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H378" t="s">
+        <v>404</v>
+      </c>
+      <c r="I378" t="s">
+        <v>386</v>
+      </c>
+      <c r="J378">
+        <v>1.1578125561421458E-4</v>
+      </c>
+    </row>
+    <row r="379" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H379" t="s">
+        <v>404</v>
+      </c>
+      <c r="I379" t="s">
+        <v>387</v>
+      </c>
+      <c r="J379">
+        <v>1.158432130659576E-4</v>
+      </c>
+    </row>
+    <row r="380" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H380" t="s">
+        <v>404</v>
+      </c>
+      <c r="I380" t="s">
+        <v>388</v>
+      </c>
+      <c r="J380">
+        <v>1.1586338525954836E-4</v>
+      </c>
+    </row>
+    <row r="381" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H381" t="s">
+        <v>404</v>
+      </c>
+      <c r="I381" t="s">
+        <v>389</v>
+      </c>
+      <c r="J381">
+        <v>1.159066113886714E-4</v>
+      </c>
+    </row>
+    <row r="382" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H382" t="s">
+        <v>404</v>
+      </c>
+      <c r="I382" t="s">
+        <v>390</v>
+      </c>
+      <c r="J382">
+        <v>1.1583024522722069E-4</v>
+      </c>
+    </row>
+    <row r="383" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H383" t="s">
+        <v>404</v>
+      </c>
+      <c r="I383" t="s">
+        <v>391</v>
+      </c>
+      <c r="J383">
+        <v>1.1536196216172101E-4</v>
+      </c>
+    </row>
+    <row r="384" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H384" t="s">
+        <v>404</v>
+      </c>
+      <c r="I384" t="s">
+        <v>392</v>
+      </c>
+      <c r="J384">
+        <v>1.1427554544976176E-4</v>
+      </c>
+    </row>
+    <row r="385" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H385" t="s">
+        <v>404</v>
+      </c>
+      <c r="I385" t="s">
+        <v>393</v>
+      </c>
+      <c r="J385">
+        <v>1.1365597093233142E-4</v>
+      </c>
+    </row>
+    <row r="386" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H386" t="s">
+        <v>404</v>
+      </c>
+      <c r="I386" t="s">
         <v>394</v>
       </c>
-      <c r="J371">
-        <v>1.178530432056181E-4</v>
+      <c r="J386">
+        <v>1.1311564431829334E-4</v>
+      </c>
+    </row>
+    <row r="387" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H387" t="s">
+        <v>404</v>
+      </c>
+      <c r="I387" t="s">
+        <v>395</v>
+      </c>
+      <c r="J387">
+        <v>1.1301046073742726E-4</v>
       </c>
     </row>
   </sheetData>
